--- a/DatosPIBPrecio.xlsx
+++ b/DatosPIBPrecio.xlsx
@@ -1,41 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
-  <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gonzaloarrangoiz/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gonzaloarrangoiz/Desktop/Precios del carbono/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{903D84A4-C917-3F41-8E09-7D13EFD04438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA0C16B8-1DFD-2A4F-8C8C-55E8C5B22872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940"/>
   </bookViews>
   <sheets>
     <sheet name="DatosPIBPrecio" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="950" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="13">
   <si>
     <t>Anio</t>
   </si>
@@ -79,10 +64,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -402,15 +384,15 @@
   </fills>
   <borders count="10">
     <border>
-      <start/>
-      <end/>
+      <left/>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <start/>
-      <end/>
+      <left/>
+      <right/>
       <top/>
       <bottom style="thick">
         <color theme="4"/>
@@ -418,8 +400,8 @@
       <diagonal/>
     </border>
     <border>
-      <start/>
-      <end/>
+      <left/>
+      <right/>
       <top/>
       <bottom style="thick">
         <color theme="4" tint="0.499984740745262"/>
@@ -427,8 +409,8 @@
       <diagonal/>
     </border>
     <border>
-      <start/>
-      <end/>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.39997558519241921"/>
@@ -436,12 +418,12 @@
       <diagonal/>
     </border>
     <border>
-      <start style="thin">
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
-      </start>
-      <end style="thin">
+      </left>
+      <right style="thin">
         <color rgb="FF7F7F7F"/>
-      </end>
+      </right>
       <top style="thin">
         <color rgb="FF7F7F7F"/>
       </top>
@@ -451,12 +433,12 @@
       <diagonal/>
     </border>
     <border>
-      <start style="thin">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
-      </start>
-      <end style="thin">
+      </left>
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
-      </end>
+      </right>
       <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
@@ -466,8 +448,8 @@
       <diagonal/>
     </border>
     <border>
-      <start/>
-      <end/>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -475,12 +457,12 @@
       <diagonal/>
     </border>
     <border>
-      <start style="double">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
-      </start>
-      <end style="double">
+      </left>
+      <right style="double">
         <color rgb="FF3F3F3F"/>
-      </end>
+      </right>
       <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
@@ -490,12 +472,12 @@
       <diagonal/>
     </border>
     <border>
-      <start style="thin">
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
-      </start>
-      <end style="thin">
+      </left>
+      <right style="thin">
         <color rgb="FFB2B2B2"/>
-      </end>
+      </right>
       <top style="thin">
         <color rgb="FFB2B2B2"/>
       </top>
@@ -505,8 +487,8 @@
       <diagonal/>
     </border>
     <border>
-      <start/>
-      <end/>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -560,10 +542,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -623,7 +604,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -776,25 +757,25 @@
         </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0%">
+            <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110%"/>
-                <a:satMod val="105%"/>
-                <a:tint val="67%"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50%">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105%"/>
-                <a:satMod val="103%"/>
-                <a:tint val="73%"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="100%">
+            <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105%"/>
-                <a:satMod val="109%"/>
-                <a:tint val="81%"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -802,25 +783,25 @@
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0%">
+            <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103%"/>
-                <a:lumMod val="102%"/>
-                <a:tint val="94%"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50%">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110%"/>
-                <a:lumMod val="100%"/>
-                <a:shade val="100%"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="100%">
+            <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99%"/>
-                <a:satMod val="120%"/>
-                <a:shade val="78%"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -833,21 +814,21 @@
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800%"/>
+          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800%"/>
+          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800%"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -861,7 +842,7 @@
           <a:effectLst>
             <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63%"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -873,32 +854,32 @@
         </a:solidFill>
         <a:solidFill>
           <a:schemeClr val="phClr">
-            <a:tint val="95%"/>
-            <a:satMod val="170%"/>
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0%">
+            <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93%"/>
-                <a:satMod val="150%"/>
-                <a:shade val="98%"/>
-                <a:lumMod val="102%"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50%">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="98%"/>
-                <a:satMod val="130%"/>
-                <a:shade val="90%"/>
-                <a:lumMod val="103%"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="100%">
+            <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63%"/>
-                <a:satMod val="120%"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -918,7 +899,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M218"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -970,8 +951,8 @@
       <c r="B2">
         <v>2008</v>
       </c>
-      <c r="C2" s="1" t="d">
-        <v>2008-03-01</v>
+      <c r="C2" s="1">
+        <v>39508</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -980,7 +961,7 @@
         <v>12</v>
       </c>
       <c r="F2">
-        <v>21.596</v>
+        <v>33.53108623</v>
       </c>
       <c r="G2" t="s">
         <v>12</v>
@@ -1011,8 +992,8 @@
       <c r="B3">
         <v>2008</v>
       </c>
-      <c r="C3" s="1" t="d">
-        <v>2008-04-01</v>
+      <c r="C3" s="1">
+        <v>39539</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -1021,7 +1002,7 @@
         <v>12</v>
       </c>
       <c r="F3">
-        <v>23.876818180000001</v>
+        <v>37.607182479999999</v>
       </c>
       <c r="G3" t="s">
         <v>12</v>
@@ -1052,8 +1033,8 @@
       <c r="B4">
         <v>2008</v>
       </c>
-      <c r="C4" s="1" t="d">
-        <v>2008-05-01</v>
+      <c r="C4" s="1">
+        <v>39569</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -1062,7 +1043,7 @@
         <v>12</v>
       </c>
       <c r="F4">
-        <v>25.0625</v>
+        <v>38.989731249999998</v>
       </c>
       <c r="G4" t="s">
         <v>12</v>
@@ -1093,8 +1074,8 @@
       <c r="B5">
         <v>2008</v>
       </c>
-      <c r="C5" s="1" t="d">
-        <v>2008-06-01</v>
+      <c r="C5" s="1">
+        <v>39600</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -1103,7 +1084,7 @@
         <v>12</v>
       </c>
       <c r="F5">
-        <v>26.88095238</v>
+        <v>41.807305220000003</v>
       </c>
       <c r="G5" t="s">
         <v>12</v>
@@ -1134,8 +1115,8 @@
       <c r="B6">
         <v>2008</v>
       </c>
-      <c r="C6" s="1" t="d">
-        <v>2008-07-01</v>
+      <c r="C6" s="1">
+        <v>39630</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
@@ -1144,7 +1125,7 @@
         <v>12</v>
       </c>
       <c r="F6">
-        <v>25.330434780000001</v>
+        <v>39.945324730000003</v>
       </c>
       <c r="G6" t="s">
         <v>12</v>
@@ -1175,8 +1156,8 @@
       <c r="B7">
         <v>2008</v>
       </c>
-      <c r="C7" s="1" t="d">
-        <v>2008-08-01</v>
+      <c r="C7" s="1">
+        <v>39661</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
@@ -1185,7 +1166,7 @@
         <v>12</v>
       </c>
       <c r="F7">
-        <v>23.212857140000001</v>
+        <v>34.762137869999997</v>
       </c>
       <c r="G7" t="s">
         <v>12</v>
@@ -1216,8 +1197,8 @@
       <c r="B8">
         <v>2008</v>
       </c>
-      <c r="C8" s="1" t="d">
-        <v>2008-09-01</v>
+      <c r="C8" s="1">
+        <v>39692</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -1226,7 +1207,7 @@
         <v>3.07</v>
       </c>
       <c r="F8">
-        <v>23.728636359999999</v>
+        <v>34.096864019999998</v>
       </c>
       <c r="G8" t="s">
         <v>12</v>
@@ -1257,8 +1238,8 @@
       <c r="B9">
         <v>2008</v>
       </c>
-      <c r="C9" s="1" t="d">
-        <v>2008-10-01</v>
+      <c r="C9" s="1">
+        <v>39722</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -1267,7 +1248,7 @@
         <v>12</v>
       </c>
       <c r="F9">
-        <v>20.883181820000001</v>
+        <v>27.820756410000001</v>
       </c>
       <c r="G9" t="s">
         <v>12</v>
@@ -1298,8 +1279,8 @@
       <c r="B10">
         <v>2008</v>
       </c>
-      <c r="C10" s="1" t="d">
-        <v>2008-11-01</v>
+      <c r="C10" s="1">
+        <v>39753</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -1308,7 +1289,7 @@
         <v>12</v>
       </c>
       <c r="F10">
-        <v>17.079499999999999</v>
+        <v>21.745875590000001</v>
       </c>
       <c r="G10" t="s">
         <v>12</v>
@@ -1339,8 +1320,8 @@
       <c r="B11">
         <v>2008</v>
       </c>
-      <c r="C11" s="1" t="d">
-        <v>2008-12-01</v>
+      <c r="C11" s="1">
+        <v>39783</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
@@ -1349,7 +1330,7 @@
         <v>3.38</v>
       </c>
       <c r="F11">
-        <v>15.041052629999999</v>
+        <v>20.229356299999999</v>
       </c>
       <c r="G11" t="s">
         <v>12</v>
@@ -1380,8 +1361,8 @@
       <c r="B12">
         <v>2009</v>
       </c>
-      <c r="C12" s="1" t="d">
-        <v>2009-01-01</v>
+      <c r="C12" s="1">
+        <v>39814</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
@@ -1390,7 +1371,7 @@
         <v>12</v>
       </c>
       <c r="F12">
-        <v>12.89238095</v>
+        <v>17.067793399999999</v>
       </c>
       <c r="G12" t="s">
         <v>12</v>
@@ -1421,8 +1402,8 @@
       <c r="B13">
         <v>2009</v>
       </c>
-      <c r="C13" s="1" t="d">
-        <v>2009-02-01</v>
+      <c r="C13" s="1">
+        <v>39845</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
@@ -1431,7 +1412,7 @@
         <v>12</v>
       </c>
       <c r="F13">
-        <v>9.4849999999999994</v>
+        <v>12.12628795</v>
       </c>
       <c r="G13" t="s">
         <v>12</v>
@@ -1462,8 +1443,8 @@
       <c r="B14">
         <v>2009</v>
       </c>
-      <c r="C14" s="1" t="d">
-        <v>2009-03-01</v>
+      <c r="C14" s="1">
+        <v>39873</v>
       </c>
       <c r="D14" t="s">
         <v>12</v>
@@ -1472,7 +1453,7 @@
         <v>3.51</v>
       </c>
       <c r="F14">
-        <v>11.2</v>
+        <v>14.615796359999999</v>
       </c>
       <c r="G14" t="s">
         <v>12</v>
@@ -1503,8 +1484,8 @@
       <c r="B15">
         <v>2009</v>
       </c>
-      <c r="C15" s="1" t="d">
-        <v>2009-05-01</v>
+      <c r="C15" s="1">
+        <v>39904</v>
       </c>
       <c r="D15" t="s">
         <v>12</v>
@@ -1513,13 +1494,13 @@
         <v>12</v>
       </c>
       <c r="F15">
-        <v>14.533684210000001</v>
+        <v>17.033293910000001</v>
       </c>
       <c r="G15" t="s">
         <v>12</v>
       </c>
       <c r="H15">
-        <v>11.97061493</v>
+        <v>11.417999999999999</v>
       </c>
       <c r="I15">
         <v>12886814.1</v>
@@ -1544,23 +1525,23 @@
       <c r="B16">
         <v>2009</v>
       </c>
-      <c r="C16" s="1" t="d">
-        <v>2009-06-01</v>
+      <c r="C16" s="1">
+        <v>39934</v>
       </c>
       <c r="D16" t="s">
         <v>12</v>
       </c>
-      <c r="E16">
-        <v>3.23</v>
+      <c r="E16" t="s">
+        <v>12</v>
       </c>
       <c r="F16">
-        <v>13.11</v>
+        <v>19.839132960000001</v>
       </c>
       <c r="G16" t="s">
         <v>12</v>
       </c>
       <c r="H16">
-        <v>12.745186889999999</v>
+        <v>11.97061493</v>
       </c>
       <c r="I16">
         <v>12886814.1</v>
@@ -1585,23 +1566,23 @@
       <c r="B17">
         <v>2009</v>
       </c>
-      <c r="C17" s="1" t="d">
-        <v>2009-04-01</v>
+      <c r="C17" s="1">
+        <v>39965</v>
       </c>
       <c r="D17" t="s">
         <v>12</v>
       </c>
-      <c r="E17" t="s">
-        <v>12</v>
+      <c r="E17">
+        <v>3.23</v>
       </c>
       <c r="F17">
-        <v>12.913500000000001</v>
+        <v>18.375571910000001</v>
       </c>
       <c r="G17" t="s">
         <v>12</v>
       </c>
       <c r="H17">
-        <v>11.417999999999999</v>
+        <v>12.745186889999999</v>
       </c>
       <c r="I17">
         <v>12886814.1</v>
@@ -1626,8 +1607,8 @@
       <c r="B18">
         <v>2009</v>
       </c>
-      <c r="C18" s="1" t="d">
-        <v>2009-07-01</v>
+      <c r="C18" s="1">
+        <v>39995</v>
       </c>
       <c r="D18" t="s">
         <v>12</v>
@@ -1636,7 +1617,7 @@
         <v>12</v>
       </c>
       <c r="F18">
-        <v>13.74217391</v>
+        <v>19.35955637</v>
       </c>
       <c r="G18" t="s">
         <v>12</v>
@@ -1667,8 +1648,8 @@
       <c r="B19">
         <v>2009</v>
       </c>
-      <c r="C19" s="1" t="d">
-        <v>2009-08-01</v>
+      <c r="C19" s="1">
+        <v>40026</v>
       </c>
       <c r="D19" t="s">
         <v>12</v>
@@ -1677,7 +1658,7 @@
         <v>12</v>
       </c>
       <c r="F19">
-        <v>14.61190476</v>
+        <v>20.84826571</v>
       </c>
       <c r="G19" t="s">
         <v>12</v>
@@ -1708,8 +1689,8 @@
       <c r="B20">
         <v>2009</v>
       </c>
-      <c r="C20" s="1" t="d">
-        <v>2009-09-01</v>
+      <c r="C20" s="1">
+        <v>40057</v>
       </c>
       <c r="D20" t="s">
         <v>12</v>
@@ -1718,7 +1699,7 @@
         <v>2.19</v>
       </c>
       <c r="F20">
-        <v>14.112727270000001</v>
+        <v>20.550440259999998</v>
       </c>
       <c r="G20" t="s">
         <v>12</v>
@@ -1749,8 +1730,8 @@
       <c r="B21">
         <v>2009</v>
       </c>
-      <c r="C21" s="1" t="d">
-        <v>2009-10-01</v>
+      <c r="C21" s="1">
+        <v>40087</v>
       </c>
       <c r="D21" t="s">
         <v>12</v>
@@ -1759,7 +1740,7 @@
         <v>12</v>
       </c>
       <c r="F21">
-        <v>14.07272727</v>
+        <v>20.850664460000001</v>
       </c>
       <c r="G21" t="s">
         <v>12</v>
@@ -1790,8 +1771,8 @@
       <c r="B22">
         <v>2009</v>
       </c>
-      <c r="C22" s="1" t="d">
-        <v>2009-11-01</v>
+      <c r="C22" s="1">
+        <v>40118</v>
       </c>
       <c r="D22" t="s">
         <v>12</v>
@@ -1800,7 +1781,7 @@
         <v>12</v>
       </c>
       <c r="F22">
-        <v>13.52619048</v>
+        <v>20.173604579999999</v>
       </c>
       <c r="G22" t="s">
         <v>12</v>
@@ -1831,8 +1812,8 @@
       <c r="B23">
         <v>2009</v>
       </c>
-      <c r="C23" s="1" t="d">
-        <v>2009-12-01</v>
+      <c r="C23" s="1">
+        <v>40148</v>
       </c>
       <c r="D23" t="s">
         <v>12</v>
@@ -1841,7 +1822,7 @@
         <v>2.0499999999999998</v>
       </c>
       <c r="F23">
-        <v>13.525</v>
+        <v>19.764881710000001</v>
       </c>
       <c r="G23" t="s">
         <v>12</v>
@@ -1872,23 +1853,23 @@
       <c r="B24">
         <v>2010</v>
       </c>
-      <c r="C24" s="1" t="d">
-        <v>2010-03-01</v>
+      <c r="C24" s="1">
+        <v>40179</v>
       </c>
       <c r="D24" t="s">
         <v>12</v>
       </c>
-      <c r="E24">
-        <v>2.0699999999999998</v>
+      <c r="E24" t="s">
+        <v>12</v>
       </c>
       <c r="F24">
-        <v>12.8826087</v>
+        <v>18.49450079</v>
       </c>
       <c r="G24" t="s">
         <v>12</v>
       </c>
       <c r="H24">
-        <v>14.33527819</v>
+        <v>14.743045370000001</v>
       </c>
       <c r="I24">
         <v>13423948.5</v>
@@ -1913,8 +1894,8 @@
       <c r="B25">
         <v>2010</v>
       </c>
-      <c r="C25" s="1" t="d">
-        <v>2010-01-01</v>
+      <c r="C25" s="1">
+        <v>40210</v>
       </c>
       <c r="D25" t="s">
         <v>12</v>
@@ -1923,13 +1904,13 @@
         <v>12</v>
       </c>
       <c r="F25">
-        <v>12.958500000000001</v>
+        <v>17.631287310000001</v>
       </c>
       <c r="G25" t="s">
         <v>12</v>
       </c>
       <c r="H25">
-        <v>14.743045370000001</v>
+        <v>14.225791449999999</v>
       </c>
       <c r="I25">
         <v>13423948.5</v>
@@ -1954,23 +1935,23 @@
       <c r="B26">
         <v>2010</v>
       </c>
-      <c r="C26" s="1" t="d">
-        <v>2010-02-01</v>
+      <c r="C26" s="1">
+        <v>40238</v>
       </c>
       <c r="D26" t="s">
         <v>12</v>
       </c>
-      <c r="E26" t="s">
-        <v>12</v>
+      <c r="E26">
+        <v>2.0699999999999998</v>
       </c>
       <c r="F26">
-        <v>12.882999999999999</v>
+        <v>17.47979561</v>
       </c>
       <c r="G26" t="s">
         <v>12</v>
       </c>
       <c r="H26">
-        <v>14.225791449999999</v>
+        <v>14.33527819</v>
       </c>
       <c r="I26">
         <v>13423948.5</v>
@@ -1995,8 +1976,8 @@
       <c r="B27">
         <v>2010</v>
       </c>
-      <c r="C27" s="1" t="d">
-        <v>2010-04-01</v>
+      <c r="C27" s="1">
+        <v>40269</v>
       </c>
       <c r="D27" t="s">
         <v>12</v>
@@ -2005,7 +1986,7 @@
         <v>12</v>
       </c>
       <c r="F27">
-        <v>14.244</v>
+        <v>19.095079080000001</v>
       </c>
       <c r="G27" t="s">
         <v>12</v>
@@ -2036,8 +2017,8 @@
       <c r="B28">
         <v>2010</v>
       </c>
-      <c r="C28" s="1" t="d">
-        <v>2010-05-01</v>
+      <c r="C28" s="1">
+        <v>40299</v>
       </c>
       <c r="D28" t="s">
         <v>12</v>
@@ -2046,7 +2027,7 @@
         <v>12</v>
       </c>
       <c r="F28">
-        <v>15.28315789</v>
+        <v>19.20379733</v>
       </c>
       <c r="G28" t="s">
         <v>12</v>
@@ -2077,8 +2058,8 @@
       <c r="B29">
         <v>2010</v>
       </c>
-      <c r="C29" s="1" t="d">
-        <v>2010-06-01</v>
+      <c r="C29" s="1">
+        <v>40330</v>
       </c>
       <c r="D29" t="s">
         <v>12</v>
@@ -2087,7 +2068,7 @@
         <v>1.88</v>
       </c>
       <c r="F29">
-        <v>15.33090909</v>
+        <v>18.716740359999999</v>
       </c>
       <c r="G29" t="s">
         <v>12</v>
@@ -2118,8 +2099,8 @@
       <c r="B30">
         <v>2010</v>
       </c>
-      <c r="C30" s="1" t="d">
-        <v>2010-07-01</v>
+      <c r="C30" s="1">
+        <v>40360</v>
       </c>
       <c r="D30" t="s">
         <v>12</v>
@@ -2128,7 +2109,7 @@
         <v>12</v>
       </c>
       <c r="F30">
-        <v>14.23227273</v>
+        <v>18.174612270000001</v>
       </c>
       <c r="G30" t="s">
         <v>12</v>
@@ -2159,8 +2140,8 @@
       <c r="B31">
         <v>2010</v>
       </c>
-      <c r="C31" s="1" t="d">
-        <v>2010-08-01</v>
+      <c r="C31" s="1">
+        <v>40391</v>
       </c>
       <c r="D31" t="s">
         <v>12</v>
@@ -2169,7 +2150,7 @@
         <v>12</v>
       </c>
       <c r="F31">
-        <v>14.60409091</v>
+        <v>18.830780350000001</v>
       </c>
       <c r="G31" t="s">
         <v>12</v>
@@ -2200,8 +2181,8 @@
       <c r="B32">
         <v>2010</v>
       </c>
-      <c r="C32" s="1" t="d">
-        <v>2010-09-01</v>
+      <c r="C32" s="1">
+        <v>40422</v>
       </c>
       <c r="D32" t="s">
         <v>12</v>
@@ -2210,7 +2191,7 @@
         <v>1.86</v>
       </c>
       <c r="F32">
-        <v>15.310454549999999</v>
+        <v>20.006170950000001</v>
       </c>
       <c r="G32" t="s">
         <v>12</v>
@@ -2241,8 +2222,8 @@
       <c r="B33">
         <v>2010</v>
       </c>
-      <c r="C33" s="1" t="d">
-        <v>2010-10-01</v>
+      <c r="C33" s="1">
+        <v>40452</v>
       </c>
       <c r="D33" t="s">
         <v>12</v>
@@ -2251,7 +2232,7 @@
         <v>12</v>
       </c>
       <c r="F33">
-        <v>15.24809524</v>
+        <v>21.191512320000001</v>
       </c>
       <c r="G33" t="s">
         <v>12</v>
@@ -2282,8 +2263,8 @@
       <c r="B34">
         <v>2010</v>
       </c>
-      <c r="C34" s="1" t="d">
-        <v>2010-11-01</v>
+      <c r="C34" s="1">
+        <v>40483</v>
       </c>
       <c r="D34" t="s">
         <v>12</v>
@@ -2292,7 +2273,7 @@
         <v>12</v>
       </c>
       <c r="F34">
-        <v>14.76727273</v>
+        <v>20.173504149999999</v>
       </c>
       <c r="G34" t="s">
         <v>12</v>
@@ -2323,8 +2304,8 @@
       <c r="B35">
         <v>2010</v>
       </c>
-      <c r="C35" s="1" t="d">
-        <v>2010-12-01</v>
+      <c r="C35" s="1">
+        <v>40513</v>
       </c>
       <c r="D35" t="s">
         <v>12</v>
@@ -2333,7 +2314,7 @@
         <v>1.86</v>
       </c>
       <c r="F35">
-        <v>14.250952379999999</v>
+        <v>18.839944930000001</v>
       </c>
       <c r="G35" t="s">
         <v>12</v>
@@ -2364,8 +2345,8 @@
       <c r="B36">
         <v>2011</v>
       </c>
-      <c r="C36" s="1" t="d">
-        <v>2011-02-01</v>
+      <c r="C36" s="1">
+        <v>40544</v>
       </c>
       <c r="D36" t="s">
         <v>12</v>
@@ -2374,13 +2355,13 @@
         <v>12</v>
       </c>
       <c r="F36">
-        <v>14.6165</v>
+        <v>19.002535399999999</v>
       </c>
       <c r="G36" t="s">
         <v>12</v>
       </c>
       <c r="H36">
-        <v>14.55405466</v>
+        <v>15.226690169999999</v>
       </c>
       <c r="I36">
         <v>13689761.699999999</v>
@@ -2405,23 +2386,23 @@
       <c r="B37">
         <v>2011</v>
       </c>
-      <c r="C37" s="1" t="d">
-        <v>2011-03-01</v>
+      <c r="C37" s="1">
+        <v>40575</v>
       </c>
       <c r="D37" t="s">
         <v>12</v>
       </c>
-      <c r="E37">
-        <v>1.89</v>
+      <c r="E37" t="s">
+        <v>12</v>
       </c>
       <c r="F37">
-        <v>15.75869565</v>
+        <v>19.94998777</v>
       </c>
       <c r="G37" t="s">
         <v>12</v>
       </c>
       <c r="H37">
-        <v>15.09516996</v>
+        <v>14.55405466</v>
       </c>
       <c r="I37">
         <v>13689761.699999999</v>
@@ -2446,23 +2427,23 @@
       <c r="B38">
         <v>2011</v>
       </c>
-      <c r="C38" s="1" t="d">
-        <v>2011-01-01</v>
+      <c r="C38" s="1">
+        <v>40603</v>
       </c>
       <c r="D38" t="s">
         <v>12</v>
       </c>
-      <c r="E38" t="s">
-        <v>12</v>
+      <c r="E38">
+        <v>1.89</v>
       </c>
       <c r="F38">
-        <v>14.22380952</v>
+        <v>22.060872109999998</v>
       </c>
       <c r="G38" t="s">
         <v>12</v>
       </c>
       <c r="H38">
-        <v>15.226690169999999</v>
+        <v>15.09516996</v>
       </c>
       <c r="I38">
         <v>13689761.699999999</v>
@@ -2487,8 +2468,8 @@
       <c r="B39">
         <v>2011</v>
       </c>
-      <c r="C39" s="1" t="d">
-        <v>2011-04-01</v>
+      <c r="C39" s="1">
+        <v>40634</v>
       </c>
       <c r="D39" t="s">
         <v>12</v>
@@ -2497,7 +2478,7 @@
         <v>12</v>
       </c>
       <c r="F39">
-        <v>16.306315789999999</v>
+        <v>23.54923797</v>
       </c>
       <c r="G39" t="s">
         <v>12</v>
@@ -2528,8 +2509,8 @@
       <c r="B40">
         <v>2011</v>
       </c>
-      <c r="C40" s="1" t="d">
-        <v>2011-05-01</v>
+      <c r="C40" s="1">
+        <v>40664</v>
       </c>
       <c r="D40" t="s">
         <v>12</v>
@@ -2538,7 +2519,7 @@
         <v>12</v>
       </c>
       <c r="F40">
-        <v>16.396363640000001</v>
+        <v>23.526545949999999</v>
       </c>
       <c r="G40" t="s">
         <v>12</v>
@@ -2569,8 +2550,8 @@
       <c r="B41">
         <v>2011</v>
       </c>
-      <c r="C41" s="1" t="d">
-        <v>2011-06-01</v>
+      <c r="C41" s="1">
+        <v>40695</v>
       </c>
       <c r="D41" t="s">
         <v>12</v>
@@ -2579,7 +2560,7 @@
         <v>1.89</v>
       </c>
       <c r="F41">
-        <v>15.019</v>
+        <v>21.60995161</v>
       </c>
       <c r="G41" t="s">
         <v>12</v>
@@ -2610,8 +2591,8 @@
       <c r="B42">
         <v>2011</v>
       </c>
-      <c r="C42" s="1" t="d">
-        <v>2011-07-01</v>
+      <c r="C42" s="1">
+        <v>40725</v>
       </c>
       <c r="D42" t="s">
         <v>12</v>
@@ -2620,7 +2601,7 @@
         <v>12</v>
       </c>
       <c r="F42">
-        <v>12.52904762</v>
+        <v>17.8717915</v>
       </c>
       <c r="G42" t="s">
         <v>12</v>
@@ -2651,8 +2632,8 @@
       <c r="B43">
         <v>2011</v>
       </c>
-      <c r="C43" s="1" t="d">
-        <v>2011-08-01</v>
+      <c r="C43" s="1">
+        <v>40756</v>
       </c>
       <c r="D43" t="s">
         <v>12</v>
@@ -2661,7 +2642,7 @@
         <v>12</v>
       </c>
       <c r="F43">
-        <v>12.12956522</v>
+        <v>17.397699079999999</v>
       </c>
       <c r="G43" t="s">
         <v>12</v>
@@ -2692,8 +2673,8 @@
       <c r="B44">
         <v>2011</v>
       </c>
-      <c r="C44" s="1" t="d">
-        <v>2011-09-01</v>
+      <c r="C44" s="1">
+        <v>40787</v>
       </c>
       <c r="D44" t="s">
         <v>12</v>
@@ -2702,7 +2683,7 @@
         <v>1.89</v>
       </c>
       <c r="F44">
-        <v>11.661818179999999</v>
+        <v>16.058323640000001</v>
       </c>
       <c r="G44" t="s">
         <v>12</v>
@@ -2733,8 +2714,8 @@
       <c r="B45">
         <v>2011</v>
       </c>
-      <c r="C45" s="1" t="d">
-        <v>2011-11-01</v>
+      <c r="C45" s="1">
+        <v>40817</v>
       </c>
       <c r="D45" t="s">
         <v>12</v>
@@ -2743,13 +2724,13 @@
         <v>12</v>
       </c>
       <c r="F45">
-        <v>9.2086363640000002</v>
+        <v>14.10518763</v>
       </c>
       <c r="G45" t="s">
         <v>12</v>
       </c>
       <c r="H45">
-        <v>10.059064920000001</v>
+        <v>10.67375504</v>
       </c>
       <c r="I45">
         <v>13689761.699999999</v>
@@ -2774,23 +2755,23 @@
       <c r="B46">
         <v>2011</v>
       </c>
-      <c r="C46" s="1" t="d">
-        <v>2011-12-01</v>
+      <c r="C46" s="1">
+        <v>40848</v>
       </c>
       <c r="D46" t="s">
         <v>12</v>
       </c>
-      <c r="E46">
-        <v>1.89</v>
+      <c r="E46" t="s">
+        <v>12</v>
       </c>
       <c r="F46">
-        <v>7.4042857140000002</v>
+        <v>12.48297631</v>
       </c>
       <c r="G46" t="s">
         <v>12</v>
       </c>
       <c r="H46">
-        <v>7.5237912600000003</v>
+        <v>10.059064920000001</v>
       </c>
       <c r="I46">
         <v>13689761.699999999</v>
@@ -2815,23 +2796,23 @@
       <c r="B47">
         <v>2011</v>
       </c>
-      <c r="C47" s="1" t="d">
-        <v>2011-10-01</v>
+      <c r="C47" s="1">
+        <v>40878</v>
       </c>
       <c r="D47" t="s">
         <v>12</v>
       </c>
-      <c r="E47" t="s">
-        <v>12</v>
+      <c r="E47">
+        <v>1.89</v>
       </c>
       <c r="F47">
-        <v>10.291</v>
+        <v>9.7581434009999999</v>
       </c>
       <c r="G47" t="s">
         <v>12</v>
       </c>
       <c r="H47">
-        <v>10.67375504</v>
+        <v>7.5237912600000003</v>
       </c>
       <c r="I47">
         <v>13689761.699999999</v>
@@ -2856,8 +2837,8 @@
       <c r="B48">
         <v>2012</v>
       </c>
-      <c r="C48" s="1" t="d">
-        <v>2012-02-01</v>
+      <c r="C48" s="1">
+        <v>40909</v>
       </c>
       <c r="D48" t="s">
         <v>12</v>
@@ -2866,13 +2847,13 @@
         <v>12</v>
       </c>
       <c r="F48">
-        <v>8.4700000000000006</v>
+        <v>8.8955571379999991</v>
       </c>
       <c r="G48" t="s">
         <v>12</v>
       </c>
       <c r="H48">
-        <v>6.6574967039999997</v>
+        <v>5.8493609089999996</v>
       </c>
       <c r="I48">
         <v>14292448</v>
@@ -2897,23 +2878,23 @@
       <c r="B49">
         <v>2012</v>
       </c>
-      <c r="C49" s="1" t="d">
-        <v>2012-03-01</v>
+      <c r="C49" s="1">
+        <v>40940</v>
       </c>
       <c r="D49" t="s">
         <v>12</v>
       </c>
-      <c r="E49">
-        <v>1.93</v>
+      <c r="E49" t="s">
+        <v>12</v>
       </c>
       <c r="F49">
-        <v>7.618181818</v>
+        <v>11.200808670000001</v>
       </c>
       <c r="G49" t="s">
         <v>12</v>
       </c>
       <c r="H49">
-        <v>6.3279809580000004</v>
+        <v>6.6574967039999997</v>
       </c>
       <c r="I49">
         <v>14292448</v>
@@ -2938,23 +2919,23 @@
       <c r="B50">
         <v>2012</v>
       </c>
-      <c r="C50" s="1" t="d">
-        <v>2012-01-01</v>
+      <c r="C50" s="1">
+        <v>40969</v>
       </c>
       <c r="D50" t="s">
         <v>12</v>
       </c>
-      <c r="E50" t="s">
-        <v>12</v>
+      <c r="E50">
+        <v>1.93</v>
       </c>
       <c r="F50">
-        <v>6.8931818180000004</v>
+        <v>10.05676182</v>
       </c>
       <c r="G50" t="s">
         <v>12</v>
       </c>
       <c r="H50">
-        <v>5.8493609089999996</v>
+        <v>6.3279809580000004</v>
       </c>
       <c r="I50">
         <v>14292448</v>
@@ -2979,23 +2960,23 @@
       <c r="B51">
         <v>2012</v>
       </c>
-      <c r="C51" s="1" t="d">
-        <v>2012-06-01</v>
+      <c r="C51" s="1">
+        <v>41000</v>
       </c>
       <c r="D51" t="s">
         <v>12</v>
       </c>
-      <c r="E51">
-        <v>1.93</v>
+      <c r="E51" t="s">
+        <v>12</v>
       </c>
       <c r="F51">
-        <v>7.09952381</v>
+        <v>9.1487925509999997</v>
       </c>
       <c r="G51" t="s">
         <v>12</v>
       </c>
       <c r="H51">
-        <v>4.9121165329999998</v>
+        <v>6.0241983899999996</v>
       </c>
       <c r="I51">
         <v>14292448</v>
@@ -3020,8 +3001,8 @@
       <c r="B52">
         <v>2012</v>
       </c>
-      <c r="C52" s="1" t="d">
-        <v>2012-04-01</v>
+      <c r="C52" s="1">
+        <v>41030</v>
       </c>
       <c r="D52" t="s">
         <v>12</v>
@@ -3030,13 +3011,13 @@
         <v>12</v>
       </c>
       <c r="F52">
-        <v>6.9510526319999997</v>
+        <v>8.5122978909999993</v>
       </c>
       <c r="G52" t="s">
         <v>12</v>
       </c>
       <c r="H52">
-        <v>6.0241983899999996</v>
+        <v>4.950647375</v>
       </c>
       <c r="I52">
         <v>14292448</v>
@@ -3061,23 +3042,23 @@
       <c r="B53">
         <v>2012</v>
       </c>
-      <c r="C53" s="1" t="d">
-        <v>2012-05-01</v>
+      <c r="C53" s="1">
+        <v>41061</v>
       </c>
       <c r="D53" t="s">
         <v>12</v>
       </c>
-      <c r="E53" t="s">
-        <v>12</v>
+      <c r="E53">
+        <v>1.93</v>
       </c>
       <c r="F53">
-        <v>6.6559999999999997</v>
+        <v>8.8930663679999995</v>
       </c>
       <c r="G53" t="s">
         <v>12</v>
       </c>
       <c r="H53">
-        <v>4.950647375</v>
+        <v>4.9121165329999998</v>
       </c>
       <c r="I53">
         <v>14292448</v>
@@ -3102,8 +3083,8 @@
       <c r="B54">
         <v>2012</v>
       </c>
-      <c r="C54" s="1" t="d">
-        <v>2012-07-01</v>
+      <c r="C54" s="1">
+        <v>41091</v>
       </c>
       <c r="D54" t="s">
         <v>12</v>
@@ -3112,7 +3093,7 @@
         <v>12</v>
       </c>
       <c r="F54">
-        <v>7.4459090909999999</v>
+        <v>9.1498715419999996</v>
       </c>
       <c r="G54" t="s">
         <v>12</v>
@@ -3143,8 +3124,8 @@
       <c r="B55">
         <v>2012</v>
       </c>
-      <c r="C55" s="1" t="d">
-        <v>2012-08-01</v>
+      <c r="C55" s="1">
+        <v>41122</v>
       </c>
       <c r="D55" t="s">
         <v>12</v>
@@ -3153,7 +3134,7 @@
         <v>12</v>
       </c>
       <c r="F55">
-        <v>7.5521739129999998</v>
+        <v>9.3646628169999993</v>
       </c>
       <c r="G55" t="s">
         <v>12</v>
@@ -3184,8 +3165,8 @@
       <c r="B56">
         <v>2012</v>
       </c>
-      <c r="C56" s="1" t="d">
-        <v>2012-09-01</v>
+      <c r="C56" s="1">
+        <v>41153</v>
       </c>
       <c r="D56" t="s">
         <v>12</v>
@@ -3194,7 +3175,7 @@
         <v>1.93</v>
       </c>
       <c r="F56">
-        <v>7.7335000000000003</v>
+        <v>9.9419555949999996</v>
       </c>
       <c r="G56" t="s">
         <v>12</v>
@@ -3225,8 +3206,8 @@
       <c r="B57">
         <v>2012</v>
       </c>
-      <c r="C57" s="1" t="d">
-        <v>2012-10-01</v>
+      <c r="C57" s="1">
+        <v>41183</v>
       </c>
       <c r="D57" t="s">
         <v>12</v>
@@ -3235,7 +3216,7 @@
         <v>12</v>
       </c>
       <c r="F57">
-        <v>7.8650000000000002</v>
+        <v>10.20418778</v>
       </c>
       <c r="G57" t="s">
         <v>12</v>
@@ -3266,8 +3247,8 @@
       <c r="B58">
         <v>2012</v>
       </c>
-      <c r="C58" s="1" t="d">
-        <v>2012-11-01</v>
+      <c r="C58" s="1">
+        <v>41214</v>
       </c>
       <c r="D58" t="s">
         <v>12</v>
@@ -3276,7 +3257,7 @@
         <v>12</v>
       </c>
       <c r="F58">
-        <v>7.4445454550000001</v>
+        <v>9.5496598759999998</v>
       </c>
       <c r="G58" t="s">
         <v>12</v>
@@ -3307,8 +3288,8 @@
       <c r="B59">
         <v>2012</v>
       </c>
-      <c r="C59" s="1" t="d">
-        <v>2012-12-01</v>
+      <c r="C59" s="1">
+        <v>41244</v>
       </c>
       <c r="D59" t="s">
         <v>12</v>
@@ -3317,7 +3298,7 @@
         <v>1.93</v>
       </c>
       <c r="F59">
-        <v>6.6264705880000001</v>
+        <v>8.6935108979999995</v>
       </c>
       <c r="G59" t="s">
         <v>12</v>
@@ -3348,8 +3329,8 @@
       <c r="B60">
         <v>2013</v>
       </c>
-      <c r="C60" s="1" t="d">
-        <v>2013-01-01</v>
+      <c r="C60" s="1">
+        <v>41275</v>
       </c>
       <c r="D60" t="s">
         <v>12</v>
@@ -3358,7 +3339,7 @@
         <v>12</v>
       </c>
       <c r="F60">
-        <v>5.2036363640000003</v>
+        <v>6.9146156530000003</v>
       </c>
       <c r="G60" t="s">
         <v>12</v>
@@ -3389,8 +3370,8 @@
       <c r="B61">
         <v>2013</v>
       </c>
-      <c r="C61" s="1" t="d">
-        <v>2013-02-01</v>
+      <c r="C61" s="1">
+        <v>41306</v>
       </c>
       <c r="D61" t="s">
         <v>12</v>
@@ -3399,7 +3380,7 @@
         <v>12</v>
       </c>
       <c r="F61">
-        <v>4.6150000000000002</v>
+        <v>6.1652015750000002</v>
       </c>
       <c r="G61" t="s">
         <v>12</v>
@@ -3430,8 +3411,8 @@
       <c r="B62">
         <v>2013</v>
       </c>
-      <c r="C62" s="1" t="d">
-        <v>2013-03-01</v>
+      <c r="C62" s="1">
+        <v>41334</v>
       </c>
       <c r="D62" t="s">
         <v>12</v>
@@ -3440,7 +3421,7 @@
         <v>2.8</v>
       </c>
       <c r="F62">
-        <v>4.1085000000000003</v>
+        <v>5.3260950600000001</v>
       </c>
       <c r="G62" t="s">
         <v>12</v>
@@ -3471,8 +3452,8 @@
       <c r="B63">
         <v>2013</v>
       </c>
-      <c r="C63" s="1" t="d">
-        <v>2013-05-01</v>
+      <c r="C63" s="1">
+        <v>41365</v>
       </c>
       <c r="D63" t="s">
         <v>12</v>
@@ -3481,13 +3462,13 @@
         <v>12</v>
       </c>
       <c r="F63">
-        <v>3.5375000000000001</v>
+        <v>4.9870971429999997</v>
       </c>
       <c r="G63" t="s">
         <v>12</v>
       </c>
       <c r="H63">
-        <v>1.634242513</v>
+        <v>1.7724888400000001</v>
       </c>
       <c r="I63">
         <v>14650998.6</v>
@@ -3512,23 +3493,23 @@
       <c r="B64">
         <v>2013</v>
       </c>
-      <c r="C64" s="1" t="d">
-        <v>2013-06-01</v>
+      <c r="C64" s="1">
+        <v>41395</v>
       </c>
       <c r="D64" t="s">
         <v>12</v>
       </c>
-      <c r="E64">
-        <v>3.21</v>
+      <c r="E64" t="s">
+        <v>12</v>
       </c>
       <c r="F64">
-        <v>4.2484999999999999</v>
+        <v>4.5923985800000002</v>
       </c>
       <c r="G64" t="s">
         <v>12</v>
       </c>
       <c r="H64">
-        <v>1.4446282770000001</v>
+        <v>1.634242513</v>
       </c>
       <c r="I64">
         <v>14650998.6</v>
@@ -3553,23 +3534,23 @@
       <c r="B65">
         <v>2013</v>
       </c>
-      <c r="C65" s="1" t="d">
-        <v>2013-04-01</v>
+      <c r="C65" s="1">
+        <v>41426</v>
       </c>
       <c r="D65" t="s">
         <v>12</v>
       </c>
-      <c r="E65" t="s">
-        <v>12</v>
+      <c r="E65">
+        <v>3.21</v>
       </c>
       <c r="F65">
-        <v>3.8285714290000001</v>
+        <v>5.6032404380000003</v>
       </c>
       <c r="G65" t="s">
         <v>12</v>
       </c>
       <c r="H65">
-        <v>1.7724888400000001</v>
+        <v>1.4446282770000001</v>
       </c>
       <c r="I65">
         <v>14650998.6</v>
@@ -3594,8 +3575,8 @@
       <c r="B66">
         <v>2013</v>
       </c>
-      <c r="C66" s="1" t="d">
-        <v>2013-07-01</v>
+      <c r="C66" s="1">
+        <v>41456</v>
       </c>
       <c r="D66" t="s">
         <v>12</v>
@@ -3604,7 +3585,7 @@
         <v>12</v>
       </c>
       <c r="F66">
-        <v>4.2191304350000003</v>
+        <v>5.518677641</v>
       </c>
       <c r="G66" t="s">
         <v>12</v>
@@ -3635,8 +3616,8 @@
       <c r="B67">
         <v>2013</v>
       </c>
-      <c r="C67" s="1" t="d">
-        <v>2013-08-01</v>
+      <c r="C67" s="1">
+        <v>41487</v>
       </c>
       <c r="D67" t="s">
         <v>12</v>
@@ -3645,7 +3626,7 @@
         <v>12</v>
       </c>
       <c r="F67">
-        <v>4.4154545450000002</v>
+        <v>5.8767492270000004</v>
       </c>
       <c r="G67" t="s">
         <v>12</v>
@@ -3676,8 +3657,8 @@
       <c r="B68">
         <v>2013</v>
       </c>
-      <c r="C68" s="1" t="d">
-        <v>2013-09-01</v>
+      <c r="C68" s="1">
+        <v>41518</v>
       </c>
       <c r="D68" t="s">
         <v>12</v>
@@ -3686,7 +3667,7 @@
         <v>2.67</v>
       </c>
       <c r="F68">
-        <v>5.223809524</v>
+        <v>6.972691202</v>
       </c>
       <c r="G68" t="s">
         <v>12</v>
@@ -3717,8 +3698,8 @@
       <c r="B69">
         <v>2013</v>
       </c>
-      <c r="C69" s="1" t="d">
-        <v>2013-10-01</v>
+      <c r="C69" s="1">
+        <v>41548</v>
       </c>
       <c r="D69" t="s">
         <v>12</v>
@@ -3727,7 +3708,7 @@
         <v>12</v>
       </c>
       <c r="F69">
-        <v>4.8936363639999998</v>
+        <v>6.672451905</v>
       </c>
       <c r="G69" t="s">
         <v>12</v>
@@ -3758,8 +3739,8 @@
       <c r="B70">
         <v>2013</v>
       </c>
-      <c r="C70" s="1" t="d">
-        <v>2013-11-01</v>
+      <c r="C70" s="1">
+        <v>41579</v>
       </c>
       <c r="D70" t="s">
         <v>12</v>
@@ -3768,7 +3749,7 @@
         <v>12</v>
       </c>
       <c r="F70">
-        <v>4.5171428569999996</v>
+        <v>6.0949378369999998</v>
       </c>
       <c r="G70" t="s">
         <v>12</v>
@@ -3799,8 +3780,8 @@
       <c r="B71">
         <v>2013</v>
       </c>
-      <c r="C71" s="1" t="d">
-        <v>2013-12-01</v>
+      <c r="C71" s="1">
+        <v>41609</v>
       </c>
       <c r="D71" t="s">
         <v>12</v>
@@ -3809,7 +3790,7 @@
         <v>3</v>
       </c>
       <c r="F71">
-        <v>4.7766666669999998</v>
+        <v>6.5457529330000002</v>
       </c>
       <c r="G71" t="s">
         <v>12</v>
@@ -3840,8 +3821,8 @@
       <c r="B72">
         <v>2014</v>
       </c>
-      <c r="C72" s="1" t="d">
-        <v>2014-02-01</v>
+      <c r="C72" s="1">
+        <v>41640</v>
       </c>
       <c r="D72" t="s">
         <v>12</v>
@@ -3850,13 +3831,13 @@
         <v>12</v>
       </c>
       <c r="F72">
-        <v>6.51</v>
+        <v>6.7877915289999997</v>
       </c>
       <c r="G72" t="s">
         <v>12</v>
       </c>
       <c r="H72">
-        <v>2.7188184290000001</v>
+        <v>2.7344533270000002</v>
       </c>
       <c r="I72">
         <v>15164778.5</v>
@@ -3881,23 +3862,23 @@
       <c r="B73">
         <v>2014</v>
       </c>
-      <c r="C73" s="1" t="d">
-        <v>2014-03-01</v>
+      <c r="C73" s="1">
+        <v>41671</v>
       </c>
       <c r="D73" t="s">
         <v>12</v>
       </c>
-      <c r="E73">
-        <v>4</v>
+      <c r="E73" t="s">
+        <v>12</v>
       </c>
       <c r="F73">
-        <v>6.1080952379999998</v>
+        <v>8.8916834999999992</v>
       </c>
       <c r="G73" t="s">
         <v>12</v>
       </c>
       <c r="H73">
-        <v>2.5871893770000001</v>
+        <v>2.7188184290000001</v>
       </c>
       <c r="I73">
         <v>15164778.5</v>
@@ -3922,23 +3903,23 @@
       <c r="B74">
         <v>2014</v>
       </c>
-      <c r="C74" s="1" t="d">
-        <v>2014-01-01</v>
+      <c r="C74" s="1">
+        <v>41699</v>
       </c>
       <c r="D74" t="s">
         <v>12</v>
       </c>
-      <c r="E74" t="s">
-        <v>12</v>
+      <c r="E74">
+        <v>4</v>
       </c>
       <c r="F74">
-        <v>4.9872727269999997</v>
+        <v>8.4429291860000006</v>
       </c>
       <c r="G74" t="s">
         <v>12</v>
       </c>
       <c r="H74">
-        <v>2.7344533270000002</v>
+        <v>2.5871893770000001</v>
       </c>
       <c r="I74">
         <v>15164778.5</v>
@@ -3963,8 +3944,8 @@
       <c r="B75">
         <v>2014</v>
       </c>
-      <c r="C75" s="1" t="d">
-        <v>2014-05-01</v>
+      <c r="C75" s="1">
+        <v>41730</v>
       </c>
       <c r="D75" t="s">
         <v>12</v>
@@ -3973,13 +3954,13 @@
         <v>12</v>
       </c>
       <c r="F75">
-        <v>5.0961904760000003</v>
+        <v>7.2025281249999997</v>
       </c>
       <c r="G75" t="s">
         <v>12</v>
       </c>
       <c r="H75">
-        <v>3.2720228539999998</v>
+        <v>2.636342602</v>
       </c>
       <c r="I75">
         <v>15164778.5</v>
@@ -4004,23 +3985,23 @@
       <c r="B76">
         <v>2014</v>
       </c>
-      <c r="C76" s="1" t="d">
-        <v>2014-06-01</v>
+      <c r="C76" s="1">
+        <v>41760</v>
       </c>
       <c r="D76" t="s">
         <v>12</v>
       </c>
-      <c r="E76">
-        <v>5.0199999999999996</v>
+      <c r="E76" t="s">
+        <v>12</v>
       </c>
       <c r="F76">
-        <v>5.5795238100000004</v>
+        <v>6.9981615650000002</v>
       </c>
       <c r="G76" t="s">
         <v>12</v>
       </c>
       <c r="H76">
-        <v>3.9042158809999998</v>
+        <v>3.2720228539999998</v>
       </c>
       <c r="I76">
         <v>15164778.5</v>
@@ -4045,23 +4026,23 @@
       <c r="B77">
         <v>2014</v>
       </c>
-      <c r="C77" s="1" t="d">
-        <v>2014-04-01</v>
+      <c r="C77" s="1">
+        <v>41791</v>
       </c>
       <c r="D77" t="s">
         <v>12</v>
       </c>
-      <c r="E77" t="s">
-        <v>12</v>
+      <c r="E77">
+        <v>5.0199999999999996</v>
       </c>
       <c r="F77">
-        <v>5.2145000000000001</v>
+        <v>7.5839013150000003</v>
       </c>
       <c r="G77" t="s">
         <v>12</v>
       </c>
       <c r="H77">
-        <v>2.636342602</v>
+        <v>3.9042158809999998</v>
       </c>
       <c r="I77">
         <v>15164778.5</v>
@@ -4086,8 +4067,8 @@
       <c r="B78">
         <v>2014</v>
       </c>
-      <c r="C78" s="1" t="d">
-        <v>2014-07-01</v>
+      <c r="C78" s="1">
+        <v>41821</v>
       </c>
       <c r="D78" t="s">
         <v>12</v>
@@ -4096,7 +4077,7 @@
         <v>12</v>
       </c>
       <c r="F78">
-        <v>5.95</v>
+        <v>8.0558084779999994</v>
       </c>
       <c r="G78" t="s">
         <v>12</v>
@@ -4127,8 +4108,8 @@
       <c r="B79">
         <v>2014</v>
       </c>
-      <c r="C79" s="1" t="d">
-        <v>2014-08-01</v>
+      <c r="C79" s="1">
+        <v>41852</v>
       </c>
       <c r="D79" t="s">
         <v>12</v>
@@ -4137,7 +4118,7 @@
         <v>12</v>
       </c>
       <c r="F79">
-        <v>6.2419047619999999</v>
+        <v>8.3117798280000006</v>
       </c>
       <c r="G79" t="s">
         <v>12</v>
@@ -4168,8 +4149,8 @@
       <c r="B80">
         <v>2014</v>
       </c>
-      <c r="C80" s="1" t="d">
-        <v>2014-09-01</v>
+      <c r="C80" s="1">
+        <v>41883</v>
       </c>
       <c r="D80" t="s">
         <v>12</v>
@@ -4178,7 +4159,7 @@
         <v>4.88</v>
       </c>
       <c r="F80">
-        <v>6.0145454550000004</v>
+        <v>7.7595838019999999</v>
       </c>
       <c r="G80" t="s">
         <v>12</v>
@@ -4209,23 +4190,23 @@
       <c r="B81">
         <v>2014</v>
       </c>
-      <c r="C81" s="1" t="d">
-        <v>2014-11-01</v>
-      </c>
-      <c r="D81" s="2">
-        <v>12.1</v>
+      <c r="C81" s="1">
+        <v>41913</v>
+      </c>
+      <c r="D81" t="s">
+        <v>12</v>
       </c>
       <c r="E81" t="s">
         <v>12</v>
       </c>
       <c r="F81">
-        <v>6.8520000000000003</v>
+        <v>7.7088823120000001</v>
       </c>
       <c r="G81" t="s">
         <v>12</v>
       </c>
       <c r="H81">
-        <v>3.394031955</v>
+        <v>3.4429006100000001</v>
       </c>
       <c r="I81">
         <v>15164778.5</v>
@@ -4250,23 +4231,23 @@
       <c r="B82">
         <v>2014</v>
       </c>
-      <c r="C82" s="1" t="d">
-        <v>2014-12-01</v>
-      </c>
-      <c r="D82" t="s">
-        <v>12</v>
-      </c>
-      <c r="E82">
-        <v>5.21</v>
+      <c r="C82" s="1">
+        <v>41944</v>
+      </c>
+      <c r="D82">
+        <v>12.1</v>
+      </c>
+      <c r="E82" t="s">
+        <v>12</v>
       </c>
       <c r="F82">
-        <v>6.906842105</v>
+        <v>8.5459514399999996</v>
       </c>
       <c r="G82" t="s">
         <v>12</v>
       </c>
       <c r="H82">
-        <v>4.2258207629999998</v>
+        <v>3.394031955</v>
       </c>
       <c r="I82">
         <v>15164778.5</v>
@@ -4291,23 +4272,23 @@
       <c r="B83">
         <v>2014</v>
       </c>
-      <c r="C83" s="1" t="d">
-        <v>2014-10-01</v>
+      <c r="C83" s="1">
+        <v>41974</v>
       </c>
       <c r="D83" t="s">
         <v>12</v>
       </c>
-      <c r="E83" t="s">
-        <v>12</v>
+      <c r="E83">
+        <v>5.21</v>
       </c>
       <c r="F83">
-        <v>6.0830434779999996</v>
+        <v>8.5170572280000005</v>
       </c>
       <c r="G83" t="s">
         <v>12</v>
       </c>
       <c r="H83">
-        <v>3.4429006100000001</v>
+        <v>4.2258207629999998</v>
       </c>
       <c r="I83">
         <v>15164778.5</v>
@@ -4332,8 +4313,8 @@
       <c r="B84">
         <v>2015</v>
       </c>
-      <c r="C84" s="1" t="d">
-        <v>2015-01-01</v>
+      <c r="C84" s="1">
+        <v>42005</v>
       </c>
       <c r="D84" t="s">
         <v>12</v>
@@ -4342,7 +4323,7 @@
         <v>12</v>
       </c>
       <c r="F84">
-        <v>6.9752380949999999</v>
+        <v>8.1061566979999995</v>
       </c>
       <c r="G84">
         <v>8.9451957469999996</v>
@@ -4373,17 +4354,17 @@
       <c r="B85">
         <v>2015</v>
       </c>
-      <c r="C85" s="1" t="d">
-        <v>2015-02-01</v>
-      </c>
-      <c r="D85" s="2">
+      <c r="C85" s="1">
+        <v>42036</v>
+      </c>
+      <c r="D85">
         <v>12.21</v>
       </c>
       <c r="E85" t="s">
         <v>12</v>
       </c>
       <c r="F85">
-        <v>7.2619999999999996</v>
+        <v>8.2421158299999995</v>
       </c>
       <c r="G85">
         <v>9.119312613</v>
@@ -4414,8 +4395,8 @@
       <c r="B86">
         <v>2015</v>
       </c>
-      <c r="C86" s="1" t="d">
-        <v>2015-03-01</v>
+      <c r="C86" s="1">
+        <v>42064</v>
       </c>
       <c r="D86" t="s">
         <v>12</v>
@@ -4424,7 +4405,7 @@
         <v>5.41</v>
       </c>
       <c r="F86">
-        <v>6.8009090910000003</v>
+        <v>7.3706088799999998</v>
       </c>
       <c r="G86">
         <v>9.0741655810000008</v>
@@ -4455,8 +4436,8 @@
       <c r="B87">
         <v>2015</v>
       </c>
-      <c r="C87" s="1" t="d">
-        <v>2015-04-01</v>
+      <c r="C87" s="1">
+        <v>42095</v>
       </c>
       <c r="D87" t="s">
         <v>12</v>
@@ -4465,7 +4446,7 @@
         <v>12</v>
       </c>
       <c r="F87">
-        <v>7.0960000000000001</v>
+        <v>7.6489912799999997</v>
       </c>
       <c r="G87">
         <v>9.3701077440000002</v>
@@ -4496,17 +4477,17 @@
       <c r="B88">
         <v>2015</v>
       </c>
-      <c r="C88" s="1" t="d">
-        <v>2015-05-01</v>
-      </c>
-      <c r="D88" s="2">
+      <c r="C88" s="1">
+        <v>42125</v>
+      </c>
+      <c r="D88">
         <v>12.29</v>
       </c>
       <c r="E88" t="s">
         <v>12</v>
       </c>
       <c r="F88">
-        <v>7.4489473679999998</v>
+        <v>8.3052411129999992</v>
       </c>
       <c r="G88">
         <v>9.4233461110000007</v>
@@ -4537,8 +4518,8 @@
       <c r="B89">
         <v>2015</v>
       </c>
-      <c r="C89" s="1" t="d">
-        <v>2015-06-01</v>
+      <c r="C89" s="1">
+        <v>42156</v>
       </c>
       <c r="D89" t="s">
         <v>12</v>
@@ -4547,7 +4528,7 @@
         <v>5.5</v>
       </c>
       <c r="F89">
-        <v>7.4681818179999997</v>
+        <v>8.3742420039999992</v>
       </c>
       <c r="G89">
         <v>9.2589263240000008</v>
@@ -4578,8 +4559,8 @@
       <c r="B90">
         <v>2015</v>
       </c>
-      <c r="C90" s="1" t="d">
-        <v>2015-07-01</v>
+      <c r="C90" s="1">
+        <v>42186</v>
       </c>
       <c r="D90" t="s">
         <v>12</v>
@@ -4588,7 +4569,7 @@
         <v>12</v>
       </c>
       <c r="F90">
-        <v>7.73</v>
+        <v>8.4997399569999992</v>
       </c>
       <c r="G90">
         <v>8.9865289310000005</v>
@@ -4619,17 +4600,17 @@
       <c r="B91">
         <v>2015</v>
       </c>
-      <c r="C91" s="1" t="d">
-        <v>2015-08-01</v>
-      </c>
-      <c r="D91" s="2">
+      <c r="C91" s="1">
+        <v>42217</v>
+      </c>
+      <c r="D91">
         <v>12.52</v>
       </c>
       <c r="E91" t="s">
         <v>12</v>
       </c>
       <c r="F91">
-        <v>8.085714286</v>
+        <v>9.006715646</v>
       </c>
       <c r="G91">
         <v>8.7285176769999993</v>
@@ -4660,8 +4641,8 @@
       <c r="B92">
         <v>2015</v>
       </c>
-      <c r="C92" s="1" t="d">
-        <v>2015-09-01</v>
+      <c r="C92" s="1">
+        <v>42248</v>
       </c>
       <c r="D92" t="s">
         <v>12</v>
@@ -4670,7 +4651,7 @@
         <v>6.02</v>
       </c>
       <c r="F92">
-        <v>8.1004545449999998</v>
+        <v>9.0896673270000008</v>
       </c>
       <c r="G92">
         <v>8.6915430439999994</v>
@@ -4701,8 +4682,8 @@
       <c r="B93">
         <v>2015</v>
       </c>
-      <c r="C93" s="1" t="d">
-        <v>2015-10-01</v>
+      <c r="C93" s="1">
+        <v>42278</v>
       </c>
       <c r="D93" t="s">
         <v>12</v>
@@ -4711,7 +4692,7 @@
         <v>12</v>
       </c>
       <c r="F93">
-        <v>8.3790909090000003</v>
+        <v>9.4139848100000005</v>
       </c>
       <c r="G93">
         <v>9.704335962</v>
@@ -4742,17 +4723,17 @@
       <c r="B94">
         <v>2015</v>
       </c>
-      <c r="C94" s="1" t="d">
-        <v>2015-11-01</v>
-      </c>
-      <c r="D94" s="2">
+      <c r="C94" s="1">
+        <v>42309</v>
+      </c>
+      <c r="D94">
         <v>12.73</v>
       </c>
       <c r="E94" t="s">
         <v>12</v>
       </c>
       <c r="F94">
-        <v>8.4995238099999995</v>
+        <v>9.1250887620000007</v>
       </c>
       <c r="G94">
         <v>9.9296665819999994</v>
@@ -4783,8 +4764,8 @@
       <c r="B95">
         <v>2015</v>
       </c>
-      <c r="C95" s="1" t="d">
-        <v>2015-12-01</v>
+      <c r="C95" s="1">
+        <v>42339</v>
       </c>
       <c r="D95" t="s">
         <v>12</v>
@@ -4793,7 +4774,7 @@
         <v>7.5</v>
       </c>
       <c r="F95">
-        <v>8.2904999999999998</v>
+        <v>9.0177275859999995</v>
       </c>
       <c r="G95">
         <v>9.9605474649999994</v>
@@ -4824,8 +4805,8 @@
       <c r="B96">
         <v>2016</v>
       </c>
-      <c r="C96" s="1" t="d">
-        <v>2016-01-01</v>
+      <c r="C96" s="1">
+        <v>42370</v>
       </c>
       <c r="D96" t="s">
         <v>12</v>
@@ -4834,7 +4815,7 @@
         <v>12</v>
       </c>
       <c r="F96">
-        <v>6.8120000000000003</v>
+        <v>7.3975935799999997</v>
       </c>
       <c r="G96">
         <v>10.263418039999999</v>
@@ -4865,17 +4846,17 @@
       <c r="B97">
         <v>2016</v>
       </c>
-      <c r="C97" s="1" t="d">
-        <v>2016-02-01</v>
-      </c>
-      <c r="D97" s="2">
+      <c r="C97" s="1">
+        <v>42401</v>
+      </c>
+      <c r="D97">
         <v>12.73</v>
       </c>
       <c r="E97" t="s">
         <v>12</v>
       </c>
       <c r="F97">
-        <v>5.1485714290000004</v>
+        <v>5.7112857689999998</v>
       </c>
       <c r="G97">
         <v>11.2754403</v>
@@ -4906,8 +4887,8 @@
       <c r="B98">
         <v>2016</v>
       </c>
-      <c r="C98" s="1" t="d">
-        <v>2016-03-01</v>
+      <c r="C98" s="1">
+        <v>42430</v>
       </c>
       <c r="D98" t="s">
         <v>12</v>
@@ -4916,7 +4897,7 @@
         <v>5.25</v>
       </c>
       <c r="F98">
-        <v>4.9328571429999997</v>
+        <v>5.4753069999999999</v>
       </c>
       <c r="G98">
         <v>14.94388114</v>
@@ -4947,23 +4928,23 @@
       <c r="B99">
         <v>2016</v>
       </c>
-      <c r="C99" s="1" t="d">
-        <v>2016-05-01</v>
-      </c>
-      <c r="D99" s="2">
-        <v>12.73</v>
+      <c r="C99" s="1">
+        <v>42461</v>
+      </c>
+      <c r="D99" t="s">
+        <v>12</v>
       </c>
       <c r="E99" t="s">
         <v>12</v>
       </c>
       <c r="F99">
-        <v>5.9554545450000003</v>
+        <v>6.4487596119999999</v>
       </c>
       <c r="G99">
-        <v>16.761310430000002</v>
+        <v>16.137471550000001</v>
       </c>
       <c r="H99">
-        <v>9.8228698300000001</v>
+        <v>8.8735354930000003</v>
       </c>
       <c r="I99">
         <v>16346526.4</v>
@@ -4988,23 +4969,23 @@
       <c r="B100">
         <v>2016</v>
       </c>
-      <c r="C100" s="1" t="d">
-        <v>2016-06-01</v>
-      </c>
-      <c r="D100" t="s">
-        <v>12</v>
-      </c>
-      <c r="E100">
-        <v>4.53</v>
+      <c r="C100" s="1">
+        <v>42491</v>
+      </c>
+      <c r="D100">
+        <v>12.73</v>
+      </c>
+      <c r="E100" t="s">
+        <v>12</v>
       </c>
       <c r="F100">
-        <v>5.6095454550000001</v>
+        <v>6.7362687770000003</v>
       </c>
       <c r="G100">
-        <v>14.73575496</v>
+        <v>16.761310430000002</v>
       </c>
       <c r="H100">
-        <v>12.13068191</v>
+        <v>9.8228698300000001</v>
       </c>
       <c r="I100">
         <v>16346526.4</v>
@@ -5029,23 +5010,23 @@
       <c r="B101">
         <v>2016</v>
       </c>
-      <c r="C101" s="1" t="d">
-        <v>2016-04-01</v>
+      <c r="C101" s="1">
+        <v>42522</v>
       </c>
       <c r="D101" t="s">
         <v>12</v>
       </c>
-      <c r="E101" t="s">
-        <v>12</v>
+      <c r="E101">
+        <v>4.53</v>
       </c>
       <c r="F101">
-        <v>5.6871428570000004</v>
+        <v>6.2989075950000002</v>
       </c>
       <c r="G101">
-        <v>16.137471550000001</v>
+        <v>14.73575496</v>
       </c>
       <c r="H101">
-        <v>8.8735354930000003</v>
+        <v>12.13068191</v>
       </c>
       <c r="I101">
         <v>16346526.4</v>
@@ -5070,23 +5051,23 @@
       <c r="B102">
         <v>2016</v>
       </c>
-      <c r="C102" s="1" t="d">
-        <v>2016-08-01</v>
-      </c>
-      <c r="D102" s="2">
-        <v>12.73</v>
+      <c r="C102" s="1">
+        <v>42552</v>
+      </c>
+      <c r="D102" t="s">
+        <v>12</v>
       </c>
       <c r="E102" t="s">
         <v>12</v>
       </c>
       <c r="F102">
-        <v>4.6865217389999998</v>
+        <v>5.1299972489999996</v>
       </c>
       <c r="G102">
-        <v>15.169543150000001</v>
+        <v>14.890076199999999</v>
       </c>
       <c r="H102">
-        <v>12.93881361</v>
+        <v>12.80209213</v>
       </c>
       <c r="I102">
         <v>16346526.4</v>
@@ -5111,23 +5092,23 @@
       <c r="B103">
         <v>2016</v>
       </c>
-      <c r="C103" s="1" t="d">
-        <v>2016-09-01</v>
-      </c>
-      <c r="D103" t="s">
-        <v>12</v>
-      </c>
-      <c r="E103">
-        <v>4.54</v>
+      <c r="C103" s="1">
+        <v>42583</v>
+      </c>
+      <c r="D103">
+        <v>12.73</v>
+      </c>
+      <c r="E103" t="s">
+        <v>12</v>
       </c>
       <c r="F103">
-        <v>4.3186363639999996</v>
+        <v>5.2544059169999997</v>
       </c>
       <c r="G103">
-        <v>15.57400554</v>
+        <v>15.169543150000001</v>
       </c>
       <c r="H103">
-        <v>13.749318949999999</v>
+        <v>12.93881361</v>
       </c>
       <c r="I103">
         <v>16346526.4</v>
@@ -5152,23 +5133,23 @@
       <c r="B104">
         <v>2016</v>
       </c>
-      <c r="C104" s="1" t="d">
-        <v>2016-07-01</v>
+      <c r="C104" s="1">
+        <v>42614</v>
       </c>
       <c r="D104" t="s">
         <v>12</v>
       </c>
-      <c r="E104" t="s">
-        <v>12</v>
+      <c r="E104">
+        <v>4.54</v>
       </c>
       <c r="F104">
-        <v>4.6347619050000004</v>
+        <v>4.8420943510000001</v>
       </c>
       <c r="G104">
-        <v>14.890076199999999</v>
+        <v>15.57400554</v>
       </c>
       <c r="H104">
-        <v>12.80209213</v>
+        <v>13.749318949999999</v>
       </c>
       <c r="I104">
         <v>16346526.4</v>
@@ -5193,8 +5174,8 @@
       <c r="B105">
         <v>2016</v>
       </c>
-      <c r="C105" s="1" t="d">
-        <v>2016-10-01</v>
+      <c r="C105" s="1">
+        <v>42644</v>
       </c>
       <c r="D105" t="s">
         <v>12</v>
@@ -5203,7 +5184,7 @@
         <v>12</v>
       </c>
       <c r="F105">
-        <v>5.6985714290000002</v>
+        <v>6.2832719929999996</v>
       </c>
       <c r="G105">
         <v>16.09996353</v>
@@ -5234,17 +5215,17 @@
       <c r="B106">
         <v>2016</v>
       </c>
-      <c r="C106" s="1" t="d">
-        <v>2016-11-01</v>
-      </c>
-      <c r="D106" s="2">
+      <c r="C106" s="1">
+        <v>42675</v>
+      </c>
+      <c r="D106">
         <v>12.73</v>
       </c>
       <c r="E106" t="s">
         <v>12</v>
       </c>
       <c r="F106">
-        <v>5.6368181819999998</v>
+        <v>6.0871743330000001</v>
       </c>
       <c r="G106">
         <v>15.957007000000001</v>
@@ -5275,8 +5256,8 @@
       <c r="B107">
         <v>2016</v>
       </c>
-      <c r="C107" s="1" t="d">
-        <v>2016-12-01</v>
+      <c r="C107" s="1">
+        <v>42705</v>
       </c>
       <c r="D107" t="s">
         <v>12</v>
@@ -5285,7 +5266,7 @@
         <v>3.55</v>
       </c>
       <c r="F107">
-        <v>5.2033333329999998</v>
+        <v>5.4858247779999996</v>
       </c>
       <c r="G107">
         <v>16.149348270000001</v>
@@ -5316,23 +5297,23 @@
       <c r="B108">
         <v>2017</v>
       </c>
-      <c r="C108" s="1" t="d">
-        <v>2017-02-01</v>
-      </c>
-      <c r="D108" s="2">
-        <v>13.57</v>
+      <c r="C108" s="1">
+        <v>42736</v>
+      </c>
+      <c r="D108" t="s">
+        <v>12</v>
       </c>
       <c r="E108" t="s">
         <v>12</v>
       </c>
       <c r="F108">
-        <v>5.1379999999999999</v>
+        <v>5.5489235890000002</v>
       </c>
       <c r="G108">
-        <v>21.552704309999999</v>
+        <v>17.240577210000001</v>
       </c>
       <c r="H108">
-        <v>12.77826335</v>
+        <v>12.28018084</v>
       </c>
       <c r="I108">
         <v>16826176.199999999</v>
@@ -5357,23 +5338,23 @@
       <c r="B109">
         <v>2017</v>
       </c>
-      <c r="C109" s="1" t="d">
-        <v>2017-03-01</v>
-      </c>
-      <c r="D109" t="s">
-        <v>12</v>
-      </c>
-      <c r="E109">
-        <v>3</v>
+      <c r="C109" s="1">
+        <v>42767</v>
+      </c>
+      <c r="D109">
+        <v>13.57</v>
+      </c>
+      <c r="E109" t="s">
+        <v>12</v>
       </c>
       <c r="F109">
-        <v>5.1004347829999999</v>
+        <v>5.4681935700000004</v>
       </c>
       <c r="G109">
-        <v>19.156765589999999</v>
+        <v>21.552704309999999</v>
       </c>
       <c r="H109">
-        <v>12.24199353</v>
+        <v>12.77826335</v>
       </c>
       <c r="I109">
         <v>16826176.199999999</v>
@@ -5398,23 +5379,23 @@
       <c r="B110">
         <v>2017</v>
       </c>
-      <c r="C110" s="1" t="d">
-        <v>2017-01-01</v>
+      <c r="C110" s="1">
+        <v>42795</v>
       </c>
       <c r="D110" t="s">
         <v>12</v>
       </c>
-      <c r="E110" t="s">
-        <v>12</v>
+      <c r="E110">
+        <v>3</v>
       </c>
       <c r="F110">
-        <v>5.2277272730000002</v>
+        <v>5.4496593349999998</v>
       </c>
       <c r="G110">
-        <v>17.240577210000001</v>
+        <v>19.156765589999999</v>
       </c>
       <c r="H110">
-        <v>12.28018084</v>
+        <v>12.24199353</v>
       </c>
       <c r="I110">
         <v>16826176.199999999</v>
@@ -5439,8 +5420,8 @@
       <c r="B111">
         <v>2017</v>
       </c>
-      <c r="C111" s="1" t="d">
-        <v>2017-04-01</v>
+      <c r="C111" s="1">
+        <v>42826</v>
       </c>
       <c r="D111" t="s">
         <v>12</v>
@@ -5449,7 +5430,7 @@
         <v>12</v>
       </c>
       <c r="F111">
-        <v>4.7566666670000002</v>
+        <v>5.1004151110000002</v>
       </c>
       <c r="G111">
         <v>18.099896789999999</v>
@@ -5480,17 +5461,17 @@
       <c r="B112">
         <v>2017</v>
       </c>
-      <c r="C112" s="1" t="d">
-        <v>2017-05-01</v>
-      </c>
-      <c r="D112" s="2">
+      <c r="C112" s="1">
+        <v>42856</v>
+      </c>
+      <c r="D112">
         <v>13.8</v>
       </c>
       <c r="E112" t="s">
         <v>12</v>
       </c>
       <c r="F112">
-        <v>4.6890909089999999</v>
+        <v>5.184962273</v>
       </c>
       <c r="G112">
         <v>18.361267949999998</v>
@@ -5521,8 +5502,8 @@
       <c r="B113">
         <v>2017</v>
       </c>
-      <c r="C113" s="1" t="d">
-        <v>2017-06-01</v>
+      <c r="C113" s="1">
+        <v>42887</v>
       </c>
       <c r="D113" t="s">
         <v>12</v>
@@ -5531,7 +5512,7 @@
         <v>2.5299999999999998</v>
       </c>
       <c r="F113">
-        <v>4.9627272729999996</v>
+        <v>5.5728720330000003</v>
       </c>
       <c r="G113">
         <v>18.36389634</v>
@@ -5562,8 +5543,8 @@
       <c r="B114">
         <v>2017</v>
       </c>
-      <c r="C114" s="1" t="d">
-        <v>2017-07-01</v>
+      <c r="C114" s="1">
+        <v>42917</v>
       </c>
       <c r="D114" t="s">
         <v>12</v>
@@ -5572,7 +5553,7 @@
         <v>12</v>
       </c>
       <c r="F114">
-        <v>5.2604761900000003</v>
+        <v>6.0554092930000003</v>
       </c>
       <c r="G114">
         <v>17.95700321</v>
@@ -5603,17 +5584,17 @@
       <c r="B115">
         <v>2017</v>
       </c>
-      <c r="C115" s="1" t="d">
-        <v>2017-08-01</v>
-      </c>
-      <c r="D115" s="2">
+      <c r="C115" s="1">
+        <v>42948</v>
+      </c>
+      <c r="D115">
         <v>14.75</v>
       </c>
       <c r="E115" t="s">
         <v>12</v>
       </c>
       <c r="F115">
-        <v>5.6495652170000001</v>
+        <v>6.6702942719999996</v>
       </c>
       <c r="G115">
         <v>17.906214339999998</v>
@@ -5644,8 +5625,8 @@
       <c r="B116">
         <v>2017</v>
       </c>
-      <c r="C116" s="1" t="d">
-        <v>2017-09-01</v>
+      <c r="C116" s="1">
+        <v>42979</v>
       </c>
       <c r="D116" t="s">
         <v>12</v>
@@ -5654,7 +5635,7 @@
         <v>4.3499999999999996</v>
       </c>
       <c r="F116">
-        <v>6.7942857139999999</v>
+        <v>8.0951002449999994</v>
       </c>
       <c r="G116">
         <v>18.06104946</v>
@@ -5685,23 +5666,23 @@
       <c r="B117">
         <v>2017</v>
       </c>
-      <c r="C117" s="1" t="d">
-        <v>2017-12-01</v>
+      <c r="C117" s="1">
+        <v>43009</v>
       </c>
       <c r="D117" t="s">
         <v>12</v>
       </c>
-      <c r="E117">
-        <v>3.8</v>
+      <c r="E117" t="s">
+        <v>12</v>
       </c>
       <c r="F117">
-        <v>7.5431578950000002</v>
+        <v>8.5475815789999992</v>
       </c>
       <c r="G117">
-        <v>20.268452799999999</v>
+        <v>18.775232849999998</v>
       </c>
       <c r="H117">
-        <v>14.28576657</v>
+        <v>13.060655990000001</v>
       </c>
       <c r="I117">
         <v>16826176.199999999</v>
@@ -5726,23 +5707,23 @@
       <c r="B118">
         <v>2017</v>
       </c>
-      <c r="C118" s="1" t="d">
-        <v>2017-10-01</v>
-      </c>
-      <c r="D118" t="s">
-        <v>12</v>
+      <c r="C118" s="1">
+        <v>43040</v>
+      </c>
+      <c r="D118">
+        <v>15.06</v>
       </c>
       <c r="E118" t="s">
         <v>12</v>
       </c>
       <c r="F118">
-        <v>7.270909091</v>
+        <v>8.9032730000000004</v>
       </c>
       <c r="G118">
-        <v>18.775232849999998</v>
+        <v>21.698505149999999</v>
       </c>
       <c r="H118">
-        <v>13.060655990000001</v>
+        <v>13.26128067</v>
       </c>
       <c r="I118">
         <v>16826176.199999999</v>
@@ -5767,23 +5748,23 @@
       <c r="B119">
         <v>2017</v>
       </c>
-      <c r="C119" s="1" t="d">
-        <v>2017-11-01</v>
-      </c>
-      <c r="D119" s="2">
-        <v>15.06</v>
-      </c>
-      <c r="E119" t="s">
-        <v>12</v>
+      <c r="C119" s="1">
+        <v>43070</v>
+      </c>
+      <c r="D119" t="s">
+        <v>12</v>
+      </c>
+      <c r="E119">
+        <v>3.8</v>
       </c>
       <c r="F119">
-        <v>7.585</v>
+        <v>8.9282404870000001</v>
       </c>
       <c r="G119">
-        <v>21.698505149999999</v>
+        <v>20.268452799999999</v>
       </c>
       <c r="H119">
-        <v>13.26128067</v>
+        <v>14.28576657</v>
       </c>
       <c r="I119">
         <v>16826176.199999999</v>
@@ -5808,8 +5789,8 @@
       <c r="B120">
         <v>2018</v>
       </c>
-      <c r="C120" s="1" t="d">
-        <v>2018-01-01</v>
+      <c r="C120" s="1">
+        <v>43101</v>
       </c>
       <c r="D120" t="s">
         <v>12</v>
@@ -5818,7 +5799,7 @@
         <v>12</v>
       </c>
       <c r="F120">
-        <v>8.3381818180000007</v>
+        <v>10.172164909999999</v>
       </c>
       <c r="G120">
         <v>20.333380500000001</v>
@@ -5849,17 +5830,17 @@
       <c r="B121">
         <v>2018</v>
       </c>
-      <c r="C121" s="1" t="d">
-        <v>2018-02-01</v>
-      </c>
-      <c r="D121" s="2">
+      <c r="C121" s="1">
+        <v>43132</v>
+      </c>
+      <c r="D121">
         <v>14.61</v>
       </c>
       <c r="E121" t="s">
         <v>12</v>
       </c>
       <c r="F121">
-        <v>9.4745000000000008</v>
+        <v>11.698923110000001</v>
       </c>
       <c r="G121">
         <v>20.357175900000001</v>
@@ -5890,8 +5871,8 @@
       <c r="B122">
         <v>2018</v>
       </c>
-      <c r="C122" s="1" t="d">
-        <v>2018-03-01</v>
+      <c r="C122" s="1">
+        <v>43160</v>
       </c>
       <c r="D122" t="s">
         <v>12</v>
@@ -5900,7 +5881,7 @@
         <v>3.79</v>
       </c>
       <c r="F122">
-        <v>11.54190476</v>
+        <v>14.23831356</v>
       </c>
       <c r="G122">
         <v>20.621984659999999</v>
@@ -5931,8 +5912,8 @@
       <c r="B123">
         <v>2018</v>
       </c>
-      <c r="C123" s="1" t="d">
-        <v>2018-04-01</v>
+      <c r="C123" s="1">
+        <v>43191</v>
       </c>
       <c r="D123" t="s">
         <v>12</v>
@@ -5941,7 +5922,7 @@
         <v>12</v>
       </c>
       <c r="F123">
-        <v>13.349</v>
+        <v>16.387632870000001</v>
       </c>
       <c r="G123">
         <v>20.55593081</v>
@@ -5972,17 +5953,17 @@
       <c r="B124">
         <v>2018</v>
       </c>
-      <c r="C124" s="1" t="d">
-        <v>2018-05-01</v>
-      </c>
-      <c r="D124" s="2">
+      <c r="C124" s="1">
+        <v>43221</v>
+      </c>
+      <c r="D124">
         <v>14.65</v>
       </c>
       <c r="E124" t="s">
         <v>12</v>
       </c>
       <c r="F124">
-        <v>14.84727273</v>
+        <v>17.53793598</v>
       </c>
       <c r="G124">
         <v>21.18053944</v>
@@ -6013,8 +5994,8 @@
       <c r="B125">
         <v>2018</v>
       </c>
-      <c r="C125" s="1" t="d">
-        <v>2018-06-01</v>
+      <c r="C125" s="1">
+        <v>43252</v>
       </c>
       <c r="D125" t="s">
         <v>12</v>
@@ -6023,7 +6004,7 @@
         <v>4.0199999999999996</v>
       </c>
       <c r="F125">
-        <v>15.153809519999999</v>
+        <v>17.697051729999998</v>
       </c>
       <c r="G125">
         <v>20.630795209999999</v>
@@ -6054,8 +6035,8 @@
       <c r="B126">
         <v>2018</v>
       </c>
-      <c r="C126" s="1" t="d">
-        <v>2018-07-01</v>
+      <c r="C126" s="1">
+        <v>43282</v>
       </c>
       <c r="D126" t="s">
         <v>12</v>
@@ -6064,7 +6045,7 @@
         <v>12</v>
       </c>
       <c r="F126">
-        <v>16.35409091</v>
+        <v>19.110944620000001</v>
       </c>
       <c r="G126">
         <v>22.080697449999999</v>
@@ -6095,17 +6076,17 @@
       <c r="B127">
         <v>2018</v>
       </c>
-      <c r="C127" s="1" t="d">
-        <v>2018-08-01</v>
-      </c>
-      <c r="D127" s="2">
+      <c r="C127" s="1">
+        <v>43313</v>
+      </c>
+      <c r="D127">
         <v>15.05</v>
       </c>
       <c r="E127" t="s">
         <v>12</v>
       </c>
       <c r="F127">
-        <v>18.887826090000001</v>
+        <v>21.813468230000002</v>
       </c>
       <c r="G127">
         <v>19.5814302</v>
@@ -6136,8 +6117,8 @@
       <c r="B128">
         <v>2018</v>
       </c>
-      <c r="C128" s="1" t="d">
-        <v>2018-09-01</v>
+      <c r="C128" s="1">
+        <v>43344</v>
       </c>
       <c r="D128" t="s">
         <v>12</v>
@@ -6146,7 +6127,7 @@
         <v>4.5</v>
       </c>
       <c r="F128">
-        <v>21.420500000000001</v>
+        <v>24.973518339999998</v>
       </c>
       <c r="G128">
         <v>19.621146199999998</v>
@@ -6177,8 +6158,8 @@
       <c r="B129">
         <v>2018</v>
       </c>
-      <c r="C129" s="1" t="d">
-        <v>2018-10-01</v>
+      <c r="C129" s="1">
+        <v>43374</v>
       </c>
       <c r="D129" t="s">
         <v>12</v>
@@ -6187,7 +6168,7 @@
         <v>12</v>
       </c>
       <c r="F129">
-        <v>19.55695652</v>
+        <v>22.459293899999999</v>
       </c>
       <c r="G129">
         <v>19.992954539999999</v>
@@ -6218,17 +6199,17 @@
       <c r="B130">
         <v>2018</v>
       </c>
-      <c r="C130" s="1" t="d">
-        <v>2018-11-01</v>
-      </c>
-      <c r="D130" s="2">
+      <c r="C130" s="1">
+        <v>43405</v>
+      </c>
+      <c r="D130">
         <v>15.31</v>
       </c>
       <c r="E130" t="s">
         <v>12</v>
       </c>
       <c r="F130">
-        <v>19.218636360000001</v>
+        <v>21.845561880000002</v>
       </c>
       <c r="G130">
         <v>20.833585289999998</v>
@@ -6259,8 +6240,8 @@
       <c r="B131">
         <v>2018</v>
       </c>
-      <c r="C131" s="1" t="d">
-        <v>2018-12-01</v>
+      <c r="C131" s="1">
+        <v>43435</v>
       </c>
       <c r="D131" t="s">
         <v>12</v>
@@ -6269,7 +6250,7 @@
         <v>5.35</v>
       </c>
       <c r="F131">
-        <v>22.36117647</v>
+        <v>25.456434059999999</v>
       </c>
       <c r="G131">
         <v>21.893686689999999</v>
@@ -6300,8 +6281,8 @@
       <c r="B132">
         <v>2019</v>
       </c>
-      <c r="C132" s="1" t="d">
-        <v>2019-01-01</v>
+      <c r="C132" s="1">
+        <v>43466</v>
       </c>
       <c r="D132" t="s">
         <v>12</v>
@@ -6310,7 +6291,7 @@
         <v>12</v>
       </c>
       <c r="F132">
-        <v>23.23681818</v>
+        <v>26.528102229999998</v>
       </c>
       <c r="G132">
         <v>22.388507260000001</v>
@@ -6341,17 +6322,17 @@
       <c r="B133">
         <v>2019</v>
       </c>
-      <c r="C133" s="1" t="d">
-        <v>2019-02-01</v>
-      </c>
-      <c r="D133" s="2">
+      <c r="C133" s="1">
+        <v>43497</v>
+      </c>
+      <c r="D133">
         <v>15.73</v>
       </c>
       <c r="E133" t="s">
         <v>12</v>
       </c>
       <c r="F133">
-        <v>20.994</v>
+        <v>23.830604309999998</v>
       </c>
       <c r="G133">
         <v>23.23813672</v>
@@ -6382,8 +6363,8 @@
       <c r="B134">
         <v>2019</v>
       </c>
-      <c r="C134" s="1" t="d">
-        <v>2019-03-01</v>
+      <c r="C134" s="1">
+        <v>43525</v>
       </c>
       <c r="D134" t="s">
         <v>12</v>
@@ -6392,7 +6373,7 @@
         <v>5.27</v>
       </c>
       <c r="F134">
-        <v>21.945238100000001</v>
+        <v>24.803553109999999</v>
       </c>
       <c r="G134">
         <v>23.430045589999999</v>
@@ -6423,23 +6404,23 @@
       <c r="B135">
         <v>2019</v>
       </c>
-      <c r="C135" s="1" t="d">
-        <v>2019-05-01</v>
-      </c>
-      <c r="D135" s="2">
-        <v>17.45</v>
+      <c r="C135" s="1">
+        <v>43556</v>
+      </c>
+      <c r="D135" t="s">
+        <v>12</v>
       </c>
       <c r="E135" t="s">
         <v>12</v>
       </c>
       <c r="F135">
-        <v>25.509545450000001</v>
+        <v>28.833416110000002</v>
       </c>
       <c r="G135">
-        <v>23.37690834</v>
+        <v>24.189205210000001</v>
       </c>
       <c r="H135">
-        <v>16.586626949999999</v>
+        <v>17.25872322</v>
       </c>
       <c r="I135">
         <v>18411675.5</v>
@@ -6464,23 +6445,23 @@
       <c r="B136">
         <v>2019</v>
       </c>
-      <c r="C136" s="1" t="d">
-        <v>2019-06-01</v>
-      </c>
-      <c r="D136" t="s">
-        <v>12</v>
-      </c>
-      <c r="E136">
-        <v>5.62</v>
+      <c r="C136" s="1">
+        <v>43586</v>
+      </c>
+      <c r="D136">
+        <v>17.45</v>
+      </c>
+      <c r="E136" t="s">
+        <v>12</v>
       </c>
       <c r="F136">
-        <v>25.178999999999998</v>
+        <v>28.53138302</v>
       </c>
       <c r="G136">
-        <v>23.526752599999998</v>
+        <v>23.37690834</v>
       </c>
       <c r="H136">
-        <v>15.520590520000001</v>
+        <v>16.586626949999999</v>
       </c>
       <c r="I136">
         <v>18411675.5</v>
@@ -6505,23 +6486,23 @@
       <c r="B137">
         <v>2019</v>
       </c>
-      <c r="C137" s="1" t="d">
-        <v>2019-04-01</v>
+      <c r="C137" s="1">
+        <v>43617</v>
       </c>
       <c r="D137" t="s">
         <v>12</v>
       </c>
-      <c r="E137" t="s">
-        <v>12</v>
+      <c r="E137">
+        <v>5.62</v>
       </c>
       <c r="F137">
-        <v>25.656500000000001</v>
+        <v>28.43565186</v>
       </c>
       <c r="G137">
-        <v>24.189205210000001</v>
+        <v>23.526752599999998</v>
       </c>
       <c r="H137">
-        <v>17.25872322</v>
+        <v>15.520590520000001</v>
       </c>
       <c r="I137">
         <v>18411675.5</v>
@@ -6546,8 +6527,8 @@
       <c r="B138">
         <v>2019</v>
       </c>
-      <c r="C138" s="1" t="d">
-        <v>2019-07-01</v>
+      <c r="C138" s="1">
+        <v>43647</v>
       </c>
       <c r="D138" t="s">
         <v>12</v>
@@ -6556,7 +6537,7 @@
         <v>12</v>
       </c>
       <c r="F138">
-        <v>27.932173909999999</v>
+        <v>31.335405690000002</v>
       </c>
       <c r="G138">
         <v>24.051575979999999</v>
@@ -6587,17 +6568,17 @@
       <c r="B139">
         <v>2019</v>
       </c>
-      <c r="C139" s="1" t="d">
-        <v>2019-08-01</v>
-      </c>
-      <c r="D139" s="2">
+      <c r="C139" s="1">
+        <v>43678</v>
+      </c>
+      <c r="D139">
         <v>17.16</v>
       </c>
       <c r="E139" t="s">
         <v>12</v>
       </c>
       <c r="F139">
-        <v>26.932272730000001</v>
+        <v>29.965458730000002</v>
       </c>
       <c r="G139">
         <v>24.282647659999999</v>
@@ -6628,8 +6609,8 @@
       <c r="B140">
         <v>2019</v>
       </c>
-      <c r="C140" s="1" t="d">
-        <v>2019-09-01</v>
+      <c r="C140" s="1">
+        <v>43709</v>
       </c>
       <c r="D140" t="s">
         <v>12</v>
@@ -6638,7 +6619,7 @@
         <v>5.2</v>
       </c>
       <c r="F140">
-        <v>25.740476189999999</v>
+        <v>28.324574850000001</v>
       </c>
       <c r="G140">
         <v>25.921343799999999</v>
@@ -6669,8 +6650,8 @@
       <c r="B141">
         <v>2019</v>
       </c>
-      <c r="C141" s="1" t="d">
-        <v>2019-10-01</v>
+      <c r="C141" s="1">
+        <v>43739</v>
       </c>
       <c r="D141" t="s">
         <v>12</v>
@@ -6679,7 +6660,7 @@
         <v>12</v>
       </c>
       <c r="F141">
-        <v>24.724782609999998</v>
+        <v>27.327227229999998</v>
       </c>
       <c r="G141">
         <v>27.64939339</v>
@@ -6710,17 +6691,17 @@
       <c r="B142">
         <v>2019</v>
       </c>
-      <c r="C142" s="1" t="d">
-        <v>2019-11-01</v>
-      </c>
-      <c r="D142" s="2">
+      <c r="C142" s="1">
+        <v>43770</v>
+      </c>
+      <c r="D142">
         <v>17</v>
       </c>
       <c r="E142" t="s">
         <v>12</v>
       </c>
       <c r="F142">
-        <v>24.553333330000001</v>
+        <v>27.133771750000001</v>
       </c>
       <c r="G142">
         <v>31.083175829999998</v>
@@ -6751,8 +6732,8 @@
       <c r="B143">
         <v>2019</v>
       </c>
-      <c r="C143" s="1" t="d">
-        <v>2019-12-01</v>
+      <c r="C143" s="1">
+        <v>43800</v>
       </c>
       <c r="D143" t="s">
         <v>12</v>
@@ -6761,7 +6742,7 @@
         <v>5.61</v>
       </c>
       <c r="F143">
-        <v>25.261111110000002</v>
+        <v>28.06790123</v>
       </c>
       <c r="G143">
         <v>33.616418969999998</v>
@@ -6792,23 +6773,23 @@
       <c r="B144">
         <v>2020</v>
       </c>
-      <c r="C144" s="1" t="d">
-        <v>2020-03-01</v>
+      <c r="C144" s="1">
+        <v>43831</v>
       </c>
       <c r="D144" t="s">
         <v>12</v>
       </c>
-      <c r="E144">
-        <v>5.65</v>
+      <c r="E144" t="s">
+        <v>12</v>
       </c>
       <c r="F144">
-        <v>19.823181819999999</v>
+        <v>27.093969390000002</v>
       </c>
       <c r="G144">
-        <v>32.784466719999998</v>
+        <v>32.01334731</v>
       </c>
       <c r="H144">
-        <v>14.783174069999999</v>
+        <v>19.058299860000002</v>
       </c>
       <c r="I144">
         <v>17956476.600000001</v>
@@ -6833,23 +6814,23 @@
       <c r="B145">
         <v>2020</v>
       </c>
-      <c r="C145" s="1" t="d">
-        <v>2020-01-01</v>
-      </c>
-      <c r="D145" t="s">
-        <v>12</v>
+      <c r="C145" s="1">
+        <v>43862</v>
+      </c>
+      <c r="D145">
+        <v>17.87</v>
       </c>
       <c r="E145" t="s">
         <v>12</v>
       </c>
       <c r="F145">
-        <v>24.408181819999999</v>
+        <v>26.313219749999998</v>
       </c>
       <c r="G145">
-        <v>32.01334731</v>
+        <v>32.524468650000003</v>
       </c>
       <c r="H145">
-        <v>19.058299860000002</v>
+        <v>17.220037999999999</v>
       </c>
       <c r="I145">
         <v>17956476.600000001</v>
@@ -6874,23 +6855,23 @@
       <c r="B146">
         <v>2020</v>
       </c>
-      <c r="C146" s="1" t="d">
-        <v>2020-02-01</v>
-      </c>
-      <c r="D146" s="2">
-        <v>17.87</v>
-      </c>
-      <c r="E146" t="s">
-        <v>12</v>
+      <c r="C146" s="1">
+        <v>43891</v>
+      </c>
+      <c r="D146" t="s">
+        <v>12</v>
+      </c>
+      <c r="E146">
+        <v>5.65</v>
       </c>
       <c r="F146">
-        <v>24.1295</v>
+        <v>21.93119699</v>
       </c>
       <c r="G146">
-        <v>32.524468650000003</v>
+        <v>32.784466719999998</v>
       </c>
       <c r="H146">
-        <v>17.220037999999999</v>
+        <v>14.783174069999999</v>
       </c>
       <c r="I146">
         <v>17956476.600000001</v>
@@ -6915,8 +6896,8 @@
       <c r="B147">
         <v>2020</v>
       </c>
-      <c r="C147" s="1" t="d">
-        <v>2020-04-01</v>
+      <c r="C147" s="1">
+        <v>43922</v>
       </c>
       <c r="D147" t="s">
         <v>12</v>
@@ -6925,7 +6906,7 @@
         <v>12</v>
       </c>
       <c r="F147">
-        <v>19.997</v>
+        <v>21.720541430000001</v>
       </c>
       <c r="G147">
         <v>32.838732319999998</v>
@@ -6956,17 +6937,17 @@
       <c r="B148">
         <v>2020</v>
       </c>
-      <c r="C148" s="1" t="d">
-        <v>2020-05-01</v>
-      </c>
-      <c r="D148" s="2">
+      <c r="C148" s="1">
+        <v>43952</v>
+      </c>
+      <c r="D148">
         <v>16.68</v>
       </c>
       <c r="E148" t="s">
         <v>12</v>
       </c>
       <c r="F148">
-        <v>20.017499999999998</v>
+        <v>21.822778240000002</v>
       </c>
       <c r="G148">
         <v>28.529979040000001</v>
@@ -6997,8 +6978,8 @@
       <c r="B149">
         <v>2020</v>
       </c>
-      <c r="C149" s="1" t="d">
-        <v>2020-06-01</v>
+      <c r="C149" s="1">
+        <v>43983</v>
       </c>
       <c r="D149" t="s">
         <v>12</v>
@@ -7007,7 +6988,7 @@
         <v>5.75</v>
       </c>
       <c r="F149">
-        <v>23.478636359999999</v>
+        <v>26.424244739999999</v>
       </c>
       <c r="G149">
         <v>26.222548119999999</v>
@@ -7038,8 +7019,8 @@
       <c r="B150">
         <v>2020</v>
       </c>
-      <c r="C150" s="1" t="d">
-        <v>2020-07-01</v>
+      <c r="C150" s="1">
+        <v>44013</v>
       </c>
       <c r="D150" t="s">
         <v>12</v>
@@ -7048,7 +7029,7 @@
         <v>12</v>
       </c>
       <c r="F150">
-        <v>27.452608699999999</v>
+        <v>31.46999958</v>
       </c>
       <c r="G150">
         <v>21.16251492</v>
@@ -7079,17 +7060,17 @@
       <c r="B151">
         <v>2020</v>
       </c>
-      <c r="C151" s="1" t="d">
-        <v>2020-08-01</v>
-      </c>
-      <c r="D151" s="2">
+      <c r="C151" s="1">
+        <v>44044</v>
+      </c>
+      <c r="D151">
         <v>16.68</v>
       </c>
       <c r="E151" t="s">
         <v>12</v>
       </c>
       <c r="F151">
-        <v>26.81666667</v>
+        <v>31.719008729999999</v>
       </c>
       <c r="G151">
         <v>17.552839670000001</v>
@@ -7120,8 +7101,8 @@
       <c r="B152">
         <v>2020</v>
       </c>
-      <c r="C152" s="1" t="d">
-        <v>2020-09-01</v>
+      <c r="C152" s="1">
+        <v>44075</v>
       </c>
       <c r="D152" t="s">
         <v>12</v>
@@ -7130,7 +7111,7 @@
         <v>6.82</v>
       </c>
       <c r="F152">
-        <v>27.772272730000001</v>
+        <v>33.062229440000003</v>
       </c>
       <c r="G152">
         <v>18.168248510000002</v>
@@ -7161,8 +7142,8 @@
       <c r="B153">
         <v>2020</v>
       </c>
-      <c r="C153" s="1" t="d">
-        <v>2020-10-01</v>
+      <c r="C153" s="1">
+        <v>44105</v>
       </c>
       <c r="D153" t="s">
         <v>12</v>
@@ -7171,7 +7152,7 @@
         <v>12</v>
       </c>
       <c r="F153">
-        <v>25.16772727</v>
+        <v>29.63545646</v>
       </c>
       <c r="G153">
         <v>20.888393539999999</v>
@@ -7202,17 +7183,17 @@
       <c r="B154">
         <v>2020</v>
       </c>
-      <c r="C154" s="1" t="d">
-        <v>2020-11-01</v>
-      </c>
-      <c r="D154" s="2">
+      <c r="C154" s="1">
+        <v>44136</v>
+      </c>
+      <c r="D154">
         <v>16.93</v>
       </c>
       <c r="E154" t="s">
         <v>12</v>
       </c>
       <c r="F154">
-        <v>26.561904760000001</v>
+        <v>31.44372989</v>
       </c>
       <c r="G154">
         <v>19.966189780000001</v>
@@ -7243,8 +7224,8 @@
       <c r="B155">
         <v>2020</v>
       </c>
-      <c r="C155" s="1" t="d">
-        <v>2020-12-01</v>
+      <c r="C155" s="1">
+        <v>44166</v>
       </c>
       <c r="D155" t="s">
         <v>12</v>
@@ -7253,7 +7234,7 @@
         <v>7.41</v>
       </c>
       <c r="F155">
-        <v>30.891904759999999</v>
+        <v>37.59460559</v>
       </c>
       <c r="G155">
         <v>23.250923090000001</v>
@@ -7284,23 +7265,23 @@
       <c r="B156">
         <v>2021</v>
       </c>
-      <c r="C156" s="1" t="d">
-        <v>2021-02-01</v>
-      </c>
-      <c r="D156" s="2">
-        <v>17.8</v>
+      <c r="C156" s="1">
+        <v>44197</v>
+      </c>
+      <c r="D156" t="s">
+        <v>12</v>
       </c>
       <c r="E156" t="s">
         <v>12</v>
       </c>
       <c r="F156">
-        <v>37.912999999999997</v>
+        <v>40.693845520000004</v>
       </c>
       <c r="G156">
-        <v>17.09563159</v>
+        <v>18.063945910000001</v>
       </c>
       <c r="H156">
-        <v>28.416435270000001</v>
+        <v>27.460831330000001</v>
       </c>
       <c r="I156">
         <v>19384959</v>
@@ -7325,23 +7306,23 @@
       <c r="B157">
         <v>2021</v>
       </c>
-      <c r="C157" s="1" t="d">
-        <v>2021-03-01</v>
-      </c>
-      <c r="D157" t="s">
-        <v>12</v>
-      </c>
-      <c r="E157">
-        <v>7.6</v>
+      <c r="C157" s="1">
+        <v>44228</v>
+      </c>
+      <c r="D157">
+        <v>17.8</v>
+      </c>
+      <c r="E157" t="s">
+        <v>12</v>
       </c>
       <c r="F157">
-        <v>40.863478260000001</v>
+        <v>45.866768270000001</v>
       </c>
       <c r="G157">
-        <v>16.381056489999999</v>
+        <v>17.09563159</v>
       </c>
       <c r="H157">
-        <v>27.140833780000001</v>
+        <v>28.416435270000001</v>
       </c>
       <c r="I157">
         <v>19384959</v>
@@ -7366,23 +7347,23 @@
       <c r="B158">
         <v>2021</v>
       </c>
-      <c r="C158" s="1" t="d">
-        <v>2021-01-01</v>
+      <c r="C158" s="1">
+        <v>44256</v>
       </c>
       <c r="D158" t="s">
         <v>12</v>
       </c>
-      <c r="E158" t="s">
-        <v>12</v>
+      <c r="E158">
+        <v>7.6</v>
       </c>
       <c r="F158">
-        <v>33.435499999999998</v>
+        <v>48.62380812</v>
       </c>
       <c r="G158">
-        <v>18.063945910000001</v>
+        <v>16.381056489999999</v>
       </c>
       <c r="H158">
-        <v>27.460831330000001</v>
+        <v>27.140833780000001</v>
       </c>
       <c r="I158">
         <v>19384959</v>
@@ -7407,8 +7388,8 @@
       <c r="B159">
         <v>2021</v>
       </c>
-      <c r="C159" s="1" t="d">
-        <v>2021-04-01</v>
+      <c r="C159" s="1">
+        <v>44287</v>
       </c>
       <c r="D159" t="s">
         <v>12</v>
@@ -7417,7 +7398,7 @@
         <v>12</v>
       </c>
       <c r="F159">
-        <v>45.05157895</v>
+        <v>53.967736940000002</v>
       </c>
       <c r="G159">
         <v>14.872009350000001</v>
@@ -7448,17 +7429,17 @@
       <c r="B160">
         <v>2021</v>
       </c>
-      <c r="C160" s="1" t="d">
-        <v>2021-05-01</v>
-      </c>
-      <c r="D160" s="2">
+      <c r="C160" s="1">
+        <v>44317</v>
+      </c>
+      <c r="D160">
         <v>18.8</v>
       </c>
       <c r="E160" t="s">
         <v>12</v>
       </c>
       <c r="F160">
-        <v>52.141428570000002</v>
+        <v>63.33048256</v>
       </c>
       <c r="G160">
         <v>15.64262929</v>
@@ -7489,8 +7470,8 @@
       <c r="B161">
         <v>2021</v>
       </c>
-      <c r="C161" s="1" t="d">
-        <v>2021-06-01</v>
+      <c r="C161" s="1">
+        <v>44348</v>
       </c>
       <c r="D161" t="s">
         <v>12</v>
@@ -7499,7 +7480,7 @@
         <v>7.97</v>
       </c>
       <c r="F161">
-        <v>52.828636359999997</v>
+        <v>63.641138509999998</v>
       </c>
       <c r="G161">
         <v>12.41487849</v>
@@ -7530,8 +7511,8 @@
       <c r="B162">
         <v>2021</v>
       </c>
-      <c r="C162" s="1" t="d">
-        <v>2021-07-01</v>
+      <c r="C162" s="1">
+        <v>44378</v>
       </c>
       <c r="D162" t="s">
         <v>12</v>
@@ -7540,7 +7521,7 @@
         <v>12</v>
       </c>
       <c r="F162">
-        <v>53.303181819999999</v>
+        <v>63.014052399999997</v>
       </c>
       <c r="G162">
         <v>17.248394359999999</v>
@@ -7571,17 +7552,17 @@
       <c r="B163">
         <v>2021</v>
       </c>
-      <c r="C163" s="1" t="d">
-        <v>2021-08-01</v>
-      </c>
-      <c r="D163" s="2">
+      <c r="C163" s="1">
+        <v>44409</v>
+      </c>
+      <c r="D163">
         <v>23.3</v>
       </c>
       <c r="E163" t="s">
         <v>12</v>
       </c>
       <c r="F163">
-        <v>56.591363639999997</v>
+        <v>66.618324340000001</v>
       </c>
       <c r="G163">
         <v>22.065526200000001</v>
@@ -7612,8 +7593,8 @@
       <c r="B164">
         <v>2021</v>
       </c>
-      <c r="C164" s="1" t="d">
-        <v>2021-09-01</v>
+      <c r="C164" s="1">
+        <v>44440</v>
       </c>
       <c r="D164" t="s">
         <v>12</v>
@@ -7622,7 +7603,7 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="F164">
-        <v>61.256818180000003</v>
+        <v>72.101224079999994</v>
       </c>
       <c r="G164">
         <v>24.60706549</v>
@@ -7653,23 +7634,23 @@
       <c r="B165">
         <v>2021</v>
       </c>
-      <c r="C165" s="1" t="d">
-        <v>2021-11-01</v>
-      </c>
-      <c r="D165" s="2">
-        <v>28.26</v>
+      <c r="C165" s="1">
+        <v>44470</v>
+      </c>
+      <c r="D165" t="s">
+        <v>12</v>
       </c>
       <c r="E165" t="s">
         <v>12</v>
       </c>
       <c r="F165">
-        <v>66.104545450000003</v>
+        <v>68.969118600000002</v>
       </c>
       <c r="G165">
-        <v>27.06153776</v>
+        <v>25.614521580000002</v>
       </c>
       <c r="H165">
-        <v>45.703646460000002</v>
+        <v>45.598380849999998</v>
       </c>
       <c r="I165">
         <v>19384959</v>
@@ -7694,23 +7675,23 @@
       <c r="B166">
         <v>2021</v>
       </c>
-      <c r="C166" s="1" t="d">
-        <v>2021-12-01</v>
-      </c>
-      <c r="D166" t="s">
-        <v>12</v>
-      </c>
-      <c r="E166">
-        <v>13</v>
+      <c r="C166" s="1">
+        <v>44501</v>
+      </c>
+      <c r="D166">
+        <v>28.26</v>
+      </c>
+      <c r="E166" t="s">
+        <v>12</v>
       </c>
       <c r="F166">
-        <v>79.914090909999999</v>
+        <v>75.452028659999996</v>
       </c>
       <c r="G166">
-        <v>28.966244920000001</v>
+        <v>27.06153776</v>
       </c>
       <c r="H166">
-        <v>46.325662850000001</v>
+        <v>45.703646460000002</v>
       </c>
       <c r="I166">
         <v>19384959</v>
@@ -7735,23 +7716,23 @@
       <c r="B167">
         <v>2021</v>
       </c>
-      <c r="C167" s="1" t="d">
-        <v>2021-10-01</v>
+      <c r="C167" s="1">
+        <v>44531</v>
       </c>
       <c r="D167" t="s">
         <v>12</v>
       </c>
-      <c r="E167" t="s">
-        <v>12</v>
+      <c r="E167">
+        <v>13</v>
       </c>
       <c r="F167">
-        <v>59.448571430000001</v>
+        <v>90.333151099999995</v>
       </c>
       <c r="G167">
-        <v>25.614521580000002</v>
+        <v>28.966244920000001</v>
       </c>
       <c r="H167">
-        <v>45.598380849999998</v>
+        <v>46.325662850000001</v>
       </c>
       <c r="I167">
         <v>19384959</v>
@@ -7776,23 +7757,23 @@
       <c r="B168">
         <v>2022</v>
       </c>
-      <c r="C168" s="1" t="d">
-        <v>2022-02-01</v>
-      </c>
-      <c r="D168" s="2">
-        <v>29.15</v>
+      <c r="C168" s="1">
+        <v>44562</v>
+      </c>
+      <c r="D168" t="s">
+        <v>12</v>
       </c>
       <c r="E168" t="s">
         <v>12</v>
       </c>
       <c r="F168">
-        <v>90.725499999999997</v>
+        <v>95.279203999999993</v>
       </c>
       <c r="G168">
-        <v>26.729104889999999</v>
+        <v>29.4407082</v>
       </c>
       <c r="H168">
-        <v>54.086449870000003</v>
+        <v>48.570272459999998</v>
       </c>
       <c r="I168" t="s">
         <v>12</v>
@@ -7817,23 +7798,23 @@
       <c r="B169">
         <v>2022</v>
       </c>
-      <c r="C169" s="1" t="d">
-        <v>2022-03-01</v>
-      </c>
-      <c r="D169" t="s">
-        <v>12</v>
-      </c>
-      <c r="E169">
-        <v>13.5</v>
+      <c r="C169" s="1">
+        <v>44593</v>
+      </c>
+      <c r="D169">
+        <v>29.15</v>
+      </c>
+      <c r="E169" t="s">
+        <v>12</v>
       </c>
       <c r="F169">
-        <v>74.678260870000003</v>
+        <v>102.8999548</v>
       </c>
       <c r="G169">
-        <v>20.310002990000001</v>
+        <v>26.729104889999999</v>
       </c>
       <c r="H169">
-        <v>51.269097600000002</v>
+        <v>54.086449870000003</v>
       </c>
       <c r="I169" t="s">
         <v>12</v>
@@ -7858,23 +7839,23 @@
       <c r="B170">
         <v>2022</v>
       </c>
-      <c r="C170" s="1" t="d">
-        <v>2022-01-01</v>
+      <c r="C170" s="1">
+        <v>44621</v>
       </c>
       <c r="D170" t="s">
         <v>12</v>
       </c>
-      <c r="E170" t="s">
-        <v>12</v>
+      <c r="E170">
+        <v>13.5</v>
       </c>
       <c r="F170">
-        <v>84.21</v>
+        <v>82.287650959999993</v>
       </c>
       <c r="G170">
-        <v>29.4407082</v>
+        <v>20.310002990000001</v>
       </c>
       <c r="H170">
-        <v>48.570272459999998</v>
+        <v>51.269097600000002</v>
       </c>
       <c r="I170" t="s">
         <v>12</v>
